--- a/产品认证证书有效管控.xlsx
+++ b/产品认证证书有效管控.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -11,19 +11,14 @@
     <sheet name="FAA证书" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CAAC证书!$B$2:$K$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CAAC证书!$B$2:$J$3</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="355">
   <si>
     <t>EUL-AP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1245,6 +1240,32 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>滑行道灯边逆向反光标志棒</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>滑行道边逆向反光标志棒</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>LED</t>
     </r>
     <r>
@@ -1255,6 +1276,432 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>中间位置等待灯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>立式跑道警戒灯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>型低光强跑道警戒灯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>隔离变压器</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>隔离变压器</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>隔离变压器</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>滑行道引导标记牌</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标记牌</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标记牌</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标记牌</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>风向标（内部照明）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>立式进近灯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进近侧边灯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>立式跑道边灯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跑道边灯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>立式跑道入口灯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跑道入口灯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>立式跑道入口翼排灯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寸嵌入式跑道入口翼排灯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>立式跑道末端灯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>嵌入式停止排灯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>滑行道中线灯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>滑行道引导标记牌</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>滑行道引导标记牌</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>隔离变压器箱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寸嵌入式跑道边灯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跑道入口翼排灯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>立式跑道末端灯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跑道末端灯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>立式滑行道边灯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>嵌入式滑行道边灯</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1268,20 +1715,33 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>滑行道灯边逆向反光标志棒</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>滑行道边逆向反光标志棒</t>
+      <t>停止排灯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>隔离变压器箱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进近侧边灯</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1297,36 +1757,78 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>中间位置等待灯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>立式跑道警戒灯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>型低光强跑道警戒灯</t>
+      <t>滑行道中线灯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>立式滑行道边灯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>滑行道边灯（嵌入式卤素灯型）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标准停止排灯（卤素灯）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>停止排灯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>嵌入式停止排灯</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1352,20 +1854,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>隔离变压器</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>隔离变压器</t>
+      <t>滑行道引导标记牌</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1387,6 +1876,22 @@
   </si>
   <si>
     <r>
+      <t>LED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>滑行道引导标记牌</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
@@ -1407,532 +1912,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>标记牌</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>标记牌</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>LED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>风向标（内部照明）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>LED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>立式进近灯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进近侧边灯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>立式跑道边灯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>跑道边灯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>LED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>立式跑道入口灯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>跑道入口灯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>LED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>立式跑道入口翼排灯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>寸嵌入式跑道入口翼排灯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>LED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>立式跑道末端灯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>嵌入式停止排灯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>滑行道中线灯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>滑行道引导标记牌</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>LED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>滑行道引导标记牌</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>隔离变压器箱</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>寸嵌入式跑道边灯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>跑道入口翼排灯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>立式跑道末端灯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>跑道末端灯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>LED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>立式滑行道边灯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>LED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>嵌入式滑行道边灯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>停止排灯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>隔离变压器箱</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进近侧边灯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>LED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>滑行道中线灯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>LED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>立式滑行道边灯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>滑行道边灯（嵌入式卤素灯型）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>标准停止排灯（卤素灯）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>停止排灯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>LED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>嵌入式停止排灯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>隔离变压器</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>滑行道引导标记牌</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>LED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>滑行道引导标记牌</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>LED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>滑行道引导标记牌</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>标记牌</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>立式顺序闪光灯</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1947,19 +1926,6 @@
         <charset val="134"/>
       </rPr>
       <t>隔离变压器（老式）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>滑行道引导标记牌</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3615,23 +3581,113 @@
   </si>
   <si>
     <t>LF11R051</t>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通告编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通告日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否继续认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余有效时间（月）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑行道引导标记牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请插入新行，添加新的产品认证信息…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否失效该条目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>嵌入式滑行道边灯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3640,7 +3696,7 @@
       <b/>
       <sz val="24"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3677,7 +3733,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3696,6 +3752,29 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3705,7 +3784,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -3848,37 +3927,127 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3888,10 +4057,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3900,22 +4090,38 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="解释性文本" xfId="2" builtinId="53"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3964,7 +4170,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -3999,7 +4205,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -4176,7 +4382,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4184,264 +4390,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K110"/>
+  <dimension ref="B1:M111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A94" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E114" sqref="E114"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="2" width="58.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="0.42578125" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="58.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="20.625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="18.125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="36" customHeight="1" thickBot="1">
-      <c r="B1" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-    </row>
-    <row r="2" spans="2:11" ht="20.25">
-      <c r="B2" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="20.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="23"/>
-    </row>
-    <row r="4" spans="2:11" ht="19.5">
+    <row r="1" spans="2:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+    </row>
+    <row r="2" spans="2:13" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>338</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>342</v>
+      </c>
+      <c r="H2" s="41"/>
+      <c r="I2" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="34"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="I3" s="36"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="M3" s="31"/>
+    </row>
+    <row r="4" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="D4" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="9">
         <v>8404838</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="17">
         <v>40553</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="17">
         <v>40553</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="17">
         <v>42453</v>
       </c>
-      <c r="I4" s="3">
-        <f t="shared" ref="I4:I35" ca="1" si="0">TODAY()</f>
-        <v>42863</v>
-      </c>
-      <c r="J4" s="2">
-        <f t="shared" ref="J4:J35" ca="1" si="1">INT(-I4+H4)</f>
-        <v>-410</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" ref="K4:K35" ca="1" si="2">INT(J4/30)</f>
+      <c r="I4" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J4" s="25">
+        <f ca="1">INT((H4-I4)/30)</f>
         <v>-14</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" ht="19.5">
+      <c r="K4" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="M4" s="13" t="str">
+        <f ca="1">IF(AND(J4&lt;0,K4="否"),"是","否")</f>
+        <v>是</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="D5" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="9">
         <v>8404906</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="17">
         <v>40553</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="17">
         <v>40553</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="17">
         <v>42575</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J5" s="25">
+        <f ca="1">INT((H5-I5)/30)</f>
+        <v>-10</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M5" s="13" t="str">
+        <f t="shared" ref="M5:M67" ca="1" si="0">IF(AND(J5&lt;0,K5="否"),"是","否")</f>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="9">
+        <v>8404906</v>
+      </c>
+      <c r="F6" s="17">
+        <v>40553</v>
+      </c>
+      <c r="G6" s="17">
+        <v>40553</v>
+      </c>
+      <c r="H6" s="17">
+        <v>42575</v>
+      </c>
+      <c r="I6" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J6" s="25">
+        <f ca="1">INT((H6-I6)/30)</f>
+        <v>-10</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M6" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>42863</v>
-      </c>
-      <c r="J5" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>-288</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="19.5">
-      <c r="B6" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E6" s="2">
-        <v>8404906</v>
-      </c>
-      <c r="F6" s="3">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="9">
+        <v>8404933</v>
+      </c>
+      <c r="F7" s="17">
         <v>40553</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G7" s="17">
         <v>40553</v>
       </c>
-      <c r="H6" s="3">
-        <v>42575</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="H7" s="17">
+        <v>42684</v>
+      </c>
+      <c r="I7" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J7" s="25">
+        <f ca="1">INT((H7-I7)/30)</f>
+        <v>-7</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M7" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>42863</v>
-      </c>
-      <c r="J6" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>-288</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="19.5">
-      <c r="B7" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7" s="2">
-        <v>8404933</v>
-      </c>
-      <c r="F7" s="3">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="9">
+        <v>8404934</v>
+      </c>
+      <c r="F8" s="17">
         <v>40553</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G8" s="17">
         <v>40553</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H8" s="17">
         <v>42684</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I8" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J8" s="25">
+        <f ca="1">INT((H8-I8)/30)</f>
+        <v>-7</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M8" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>42863</v>
-      </c>
-      <c r="J7" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>-179</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="19.5">
-      <c r="B8" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E8" s="2">
-        <v>8404934</v>
-      </c>
-      <c r="F8" s="3">
-        <v>40553</v>
-      </c>
-      <c r="G8" s="3">
-        <v>40553</v>
-      </c>
-      <c r="H8" s="3">
-        <v>42684</v>
-      </c>
-      <c r="I8" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>42863</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>-179</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="19.5">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>212</v>
@@ -4449,34 +4681,37 @@
       <c r="D9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="17">
         <v>42706</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="17">
         <v>42681</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="17">
         <v>42680</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J9" s="25">
+        <f ca="1">INT((H9-I9)/30)</f>
+        <v>-7</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M9" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>42863</v>
-      </c>
-      <c r="J9" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>-183</v>
-      </c>
-      <c r="K9" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="19.5">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>213</v>
@@ -4484,767 +4719,833 @@
       <c r="D10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="17">
         <v>42706</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="17">
         <v>42681</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="17">
         <v>42680</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J10" s="25">
+        <f ca="1">INT((H10-I10)/30)</f>
+        <v>-7</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M10" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>42863</v>
-      </c>
-      <c r="J10" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>-183</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="19.5">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="D11" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="17">
         <v>40553</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="17">
         <v>40553</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="17">
         <v>42842</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J11" s="25">
+        <f ca="1">INT((H11-I11)/30)</f>
+        <v>-1</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M11" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>42863</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>-21</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="19.5">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="17">
         <v>42382</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="17">
         <v>42200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="17">
         <v>42930</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J12" s="25">
+        <f ca="1">INT((H12-I12)/30)</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M12" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>42863</v>
-      </c>
-      <c r="J12" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" ca="1" si="2"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="17">
+        <v>42382</v>
+      </c>
+      <c r="G13" s="17">
+        <v>42200</v>
+      </c>
+      <c r="H13" s="17">
+        <v>42930</v>
+      </c>
+      <c r="I13" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J13" s="25">
+        <f ca="1">INT((H13-I13)/30)</f>
+        <v>1</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M13" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="17">
+        <v>42382</v>
+      </c>
+      <c r="G14" s="17">
+        <v>42200</v>
+      </c>
+      <c r="H14" s="17">
+        <v>42930</v>
+      </c>
+      <c r="I14" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J14" s="25">
+        <f ca="1">INT((H14-I14)/30)</f>
+        <v>1</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M14" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" s="17">
+        <v>42382</v>
+      </c>
+      <c r="G15" s="17">
+        <v>42200</v>
+      </c>
+      <c r="H15" s="17">
+        <v>42930</v>
+      </c>
+      <c r="I15" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J15" s="25">
+        <f ca="1">INT((H15-I15)/30)</f>
+        <v>1</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M15" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="17">
+        <v>42382</v>
+      </c>
+      <c r="G16" s="17">
+        <v>42200</v>
+      </c>
+      <c r="H16" s="17">
+        <v>42930</v>
+      </c>
+      <c r="I16" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J16" s="25">
+        <f ca="1">INT((H16-I16)/30)</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M16" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="17">
+        <v>42269</v>
+      </c>
+      <c r="G17" s="17">
+        <v>42206</v>
+      </c>
+      <c r="H17" s="17">
+        <v>42937</v>
+      </c>
+      <c r="I17" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J17" s="25">
+        <f ca="1">INT((H17-I17)/30)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" ht="19.5">
-      <c r="B13" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="F13" s="3">
-        <v>42382</v>
-      </c>
-      <c r="G13" s="3">
-        <v>42200</v>
-      </c>
-      <c r="H13" s="3">
-        <v>42930</v>
-      </c>
-      <c r="I13" s="3">
+      <c r="K17" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M17" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>42863</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" ca="1" si="2"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="17">
+        <v>42269</v>
+      </c>
+      <c r="G18" s="17">
+        <v>42206</v>
+      </c>
+      <c r="H18" s="17">
+        <v>42937</v>
+      </c>
+      <c r="I18" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J18" s="25">
+        <f ca="1">INT((H18-I18)/30)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" ht="19.5">
-      <c r="B14" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="F14" s="3">
-        <v>42382</v>
-      </c>
-      <c r="G14" s="3">
-        <v>42200</v>
-      </c>
-      <c r="H14" s="3">
-        <v>42930</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="K18" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M18" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>42863</v>
-      </c>
-      <c r="J14" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" ca="1" si="2"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="17">
+        <v>42269</v>
+      </c>
+      <c r="G19" s="17">
+        <v>42206</v>
+      </c>
+      <c r="H19" s="17">
+        <v>42937</v>
+      </c>
+      <c r="I19" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J19" s="25">
+        <f ca="1">INT((H19-I19)/30)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" ht="19.5">
-      <c r="B15" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="F15" s="3">
-        <v>42382</v>
-      </c>
-      <c r="G15" s="3">
-        <v>42200</v>
-      </c>
-      <c r="H15" s="3">
-        <v>42930</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="K19" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M19" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>42863</v>
-      </c>
-      <c r="J15" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="K15" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="19.5">
-      <c r="B16" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="F16" s="3">
-        <v>42382</v>
-      </c>
-      <c r="G16" s="3">
-        <v>42200</v>
-      </c>
-      <c r="H16" s="3">
-        <v>42930</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>42863</v>
-      </c>
-      <c r="J16" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="K16" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="19.5">
-      <c r="B17" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F17" s="3">
-        <v>42269</v>
-      </c>
-      <c r="G17" s="3">
-        <v>42206</v>
-      </c>
-      <c r="H17" s="3">
-        <v>42937</v>
-      </c>
-      <c r="I17" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>42863</v>
-      </c>
-      <c r="J17" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="K17" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="19.5">
-      <c r="B18" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="F18" s="3">
-        <v>42269</v>
-      </c>
-      <c r="G18" s="3">
-        <v>42206</v>
-      </c>
-      <c r="H18" s="3">
-        <v>42937</v>
-      </c>
-      <c r="I18" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>42863</v>
-      </c>
-      <c r="J18" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="K18" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="19.5">
-      <c r="B19" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" s="3">
-        <v>42269</v>
-      </c>
-      <c r="G19" s="3">
-        <v>42206</v>
-      </c>
-      <c r="H19" s="3">
-        <v>42937</v>
-      </c>
-      <c r="I19" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>42863</v>
-      </c>
-      <c r="J19" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="19.5">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="C20" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="17">
         <v>42269</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="17">
         <v>42206</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="17">
         <v>42937</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J20" s="25">
+        <f ca="1">INT((H20-I20)/30)</f>
+        <v>2</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M20" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>42863</v>
-      </c>
-      <c r="J20" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="K20" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="19.5">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="17">
         <v>42269</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="17">
         <v>42206</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="17">
         <v>42937</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J21" s="25">
+        <f ca="1">INT((H21-I21)/30)</f>
+        <v>2</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M21" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>42863</v>
-      </c>
-      <c r="J21" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="19.5">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="17">
         <v>42269</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="17">
         <v>42206</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="17">
         <v>42937</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J22" s="25">
+        <f ca="1">INT((H22-I22)/30)</f>
+        <v>2</v>
+      </c>
+      <c r="K22" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M22" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>42863</v>
-      </c>
-      <c r="J22" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="K22" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="19.5">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="17">
         <v>42269</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="17">
         <v>42206</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="17">
         <v>42937</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J23" s="25">
+        <f ca="1">INT((H23-I23)/30)</f>
+        <v>2</v>
+      </c>
+      <c r="K23" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M23" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>42863</v>
-      </c>
-      <c r="J23" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="K23" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="19.5">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="17">
         <v>42269</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="17">
         <v>42206</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="17">
         <v>42937</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J24" s="25">
+        <f ca="1">INT((H24-I24)/30)</f>
+        <v>2</v>
+      </c>
+      <c r="K24" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="M24" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>42863</v>
-      </c>
-      <c r="J24" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="K24" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="19.5">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="17">
         <v>42269</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="17">
         <v>42206</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="17">
         <v>42937</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J25" s="25">
+        <f ca="1">INT((H25-I25)/30)</f>
+        <v>2</v>
+      </c>
+      <c r="K25" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M25" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>42863</v>
-      </c>
-      <c r="J25" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="K25" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" ht="19.5">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="17">
         <v>42269</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="17">
         <v>42206</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="17">
         <v>42937</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J26" s="25">
+        <f ca="1">INT((H26-I26)/30)</f>
+        <v>2</v>
+      </c>
+      <c r="K26" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M26" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>42863</v>
-      </c>
-      <c r="J26" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="K26" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" ht="19.5">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="17">
         <v>42269</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="17">
         <v>42206</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="17">
         <v>42937</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J27" s="25">
+        <f ca="1">INT((H27-I27)/30)</f>
+        <v>2</v>
+      </c>
+      <c r="K27" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M27" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>42863</v>
-      </c>
-      <c r="J27" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="K27" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" ht="19.5">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="17">
         <v>42269</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="17">
         <v>42206</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="17">
         <v>42937</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J28" s="25">
+        <f ca="1">INT((H28-I28)/30)</f>
+        <v>2</v>
+      </c>
+      <c r="K28" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M28" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>42863</v>
-      </c>
-      <c r="J28" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="K28" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" ht="19.5">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="17">
         <v>42269</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="17">
         <v>42206</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="17">
         <v>42937</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J29" s="25">
+        <f ca="1">INT((H29-I29)/30)</f>
+        <v>2</v>
+      </c>
+      <c r="K29" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M29" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>42863</v>
-      </c>
-      <c r="J29" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="K29" s="4">
-        <f t="shared" ca="1" si="2"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" s="17">
+        <v>42269</v>
+      </c>
+      <c r="G30" s="17">
+        <v>42206</v>
+      </c>
+      <c r="H30" s="17">
+        <v>42937</v>
+      </c>
+      <c r="I30" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J30" s="25">
+        <f ca="1">INT((H30-I30)/30)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="2:11" ht="19.5">
-      <c r="B30" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="F30" s="3">
-        <v>42269</v>
-      </c>
-      <c r="G30" s="3">
-        <v>42206</v>
-      </c>
-      <c r="H30" s="3">
-        <v>42937</v>
-      </c>
-      <c r="I30" s="3">
+      <c r="K30" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M30" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>42863</v>
-      </c>
-      <c r="J30" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="K30" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" ht="19.5">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="17">
         <v>42269</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="17">
         <v>42206</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="17">
         <v>42937</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J31" s="25">
+        <f ca="1">INT((H31-I31)/30)</f>
+        <v>2</v>
+      </c>
+      <c r="K31" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M31" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>42863</v>
-      </c>
-      <c r="J31" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="K31" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" ht="19.5">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>206</v>
       </c>
@@ -5254,174 +5555,189 @@
       <c r="D32" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="17">
         <v>42286</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="17">
         <v>42270</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="17">
         <v>43001</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J32" s="25">
+        <f ca="1">INT((H32-I32)/30)</f>
+        <v>4</v>
+      </c>
+      <c r="K32" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M32" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>42863</v>
-      </c>
-      <c r="J32" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>138</v>
-      </c>
-      <c r="K32" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" ht="19.5">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E33" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="17">
         <v>42338</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="17">
         <v>42314</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="17">
         <v>43044</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J33" s="25">
+        <f ca="1">INT((H33-I33)/30)</f>
+        <v>5</v>
+      </c>
+      <c r="K33" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M33" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>42863</v>
-      </c>
-      <c r="J33" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>181</v>
-      </c>
-      <c r="K33" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" ht="19.5">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="17">
         <v>42338</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="17">
         <v>42314</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="17">
         <v>43044</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J34" s="25">
+        <f ca="1">INT((H34-I34)/30)</f>
+        <v>5</v>
+      </c>
+      <c r="K34" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M34" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>42863</v>
-      </c>
-      <c r="J34" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>181</v>
-      </c>
-      <c r="K34" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" ht="19.5">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="17">
         <v>42338</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="17">
         <v>42314</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="17">
         <v>43046</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J35" s="25">
+        <f ca="1">INT((H35-I35)/30)</f>
+        <v>5</v>
+      </c>
+      <c r="K35" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M35" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>42863</v>
-      </c>
-      <c r="J35" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>183</v>
-      </c>
-      <c r="K35" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="19.5">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="17">
         <v>42338</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="17">
         <v>42314</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="17">
         <v>43044</v>
       </c>
-      <c r="I36" s="3">
-        <f t="shared" ref="I36:I67" ca="1" si="3">TODAY()</f>
-        <v>42863</v>
-      </c>
-      <c r="J36" s="2">
-        <f t="shared" ref="J36:J67" ca="1" si="4">INT(-I36+H36)</f>
-        <v>181</v>
-      </c>
-      <c r="K36" s="4">
-        <f t="shared" ref="K36:K67" ca="1" si="5">INT(J36/30)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" ht="19.5">
+      <c r="I36" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J36" s="25">
+        <f ca="1">INT((H36-I36)/30)</f>
+        <v>5</v>
+      </c>
+      <c r="K36" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M36" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>208</v>
@@ -5429,734 +5745,797 @@
       <c r="D37" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="17">
         <v>42338</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="17">
         <v>42314</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="17">
         <v>43044</v>
       </c>
-      <c r="I37" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>42863</v>
-      </c>
-      <c r="J37" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>181</v>
-      </c>
-      <c r="K37" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" ht="19.5">
+      <c r="I37" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J37" s="25">
+        <f ca="1">INT((H37-I37)/30)</f>
+        <v>5</v>
+      </c>
+      <c r="K37" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M37" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="17">
         <v>42338</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="17">
         <v>42314</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="17">
         <v>43044</v>
       </c>
-      <c r="I38" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>42863</v>
-      </c>
-      <c r="J38" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>181</v>
-      </c>
-      <c r="K38" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" ht="19.5">
+      <c r="I38" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J38" s="25">
+        <f ca="1">INT((H38-I38)/30)</f>
+        <v>5</v>
+      </c>
+      <c r="K38" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M38" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="17">
         <v>42338</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="17">
         <v>42314</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="17">
         <v>43044</v>
       </c>
-      <c r="I39" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>42863</v>
-      </c>
-      <c r="J39" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>181</v>
-      </c>
-      <c r="K39" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" ht="19.5">
+      <c r="I39" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J39" s="25">
+        <f ca="1">INT((H39-I39)/30)</f>
+        <v>5</v>
+      </c>
+      <c r="K39" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M39" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C40" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="17">
         <v>42338</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="17">
         <v>42314</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="17">
         <v>43044</v>
       </c>
-      <c r="I40" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>42863</v>
-      </c>
-      <c r="J40" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>181</v>
-      </c>
-      <c r="K40" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" ht="19.5">
+      <c r="I40" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J40" s="25">
+        <f ca="1">INT((H40-I40)/30)</f>
+        <v>5</v>
+      </c>
+      <c r="K40" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M40" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="D41" s="9" t="s">
+      <c r="C41" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="17">
         <v>42338</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="17">
         <v>42314</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="17">
         <v>43044</v>
       </c>
-      <c r="I41" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>42863</v>
-      </c>
-      <c r="J41" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>181</v>
-      </c>
-      <c r="K41" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="19.5">
+      <c r="I41" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J41" s="25">
+        <f ca="1">INT((H41-I41)/30)</f>
+        <v>5</v>
+      </c>
+      <c r="K41" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M41" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="17">
         <v>42338</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="17">
         <v>42314</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="17">
         <v>43044</v>
       </c>
-      <c r="I42" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>42863</v>
-      </c>
-      <c r="J42" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>181</v>
-      </c>
-      <c r="K42" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" ht="19.5">
+      <c r="I42" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J42" s="25">
+        <f ca="1">INT((H42-I42)/30)</f>
+        <v>5</v>
+      </c>
+      <c r="K42" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M42" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="17">
         <v>42338</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="17">
         <v>42314</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="17">
         <v>43044</v>
       </c>
-      <c r="I43" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>42863</v>
-      </c>
-      <c r="J43" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>181</v>
-      </c>
-      <c r="K43" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" ht="19.5">
+      <c r="I43" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J43" s="25">
+        <f ca="1">INT((H43-I43)/30)</f>
+        <v>5</v>
+      </c>
+      <c r="K43" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M43" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="17">
         <v>42338</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="17">
         <v>42314</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="17">
         <v>43044</v>
       </c>
-      <c r="I44" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>42863</v>
-      </c>
-      <c r="J44" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>181</v>
-      </c>
-      <c r="K44" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" ht="19.5">
+      <c r="I44" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J44" s="25">
+        <f ca="1">INT((H44-I44)/30)</f>
+        <v>5</v>
+      </c>
+      <c r="K44" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M44" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="17">
         <v>42338</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="17">
         <v>42314</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="17">
         <v>43044</v>
       </c>
-      <c r="I45" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>42863</v>
-      </c>
-      <c r="J45" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>181</v>
-      </c>
-      <c r="K45" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" ht="19.5">
+      <c r="I45" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J45" s="25">
+        <f ca="1">INT((H45-I45)/30)</f>
+        <v>5</v>
+      </c>
+      <c r="K45" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M45" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="17">
         <v>42338</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="17">
         <v>42314</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="17">
         <v>43044</v>
       </c>
-      <c r="I46" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>42863</v>
-      </c>
-      <c r="J46" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>181</v>
-      </c>
-      <c r="K46" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" ht="19.5">
+      <c r="I46" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J46" s="25">
+        <f ca="1">INT((H46-I46)/30)</f>
+        <v>5</v>
+      </c>
+      <c r="K46" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M46" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="17">
         <v>42338</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="17">
         <v>42314</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="17">
         <v>43044</v>
       </c>
-      <c r="I47" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>42863</v>
-      </c>
-      <c r="J47" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>181</v>
-      </c>
-      <c r="K47" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" ht="19.5">
+      <c r="I47" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J47" s="25">
+        <f ca="1">INT((H47-I47)/30)</f>
+        <v>5</v>
+      </c>
+      <c r="K47" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M47" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="17">
         <v>42338</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="17">
         <v>42314</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="17">
         <v>43044</v>
       </c>
-      <c r="I48" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>42863</v>
-      </c>
-      <c r="J48" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>181</v>
-      </c>
-      <c r="K48" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" ht="19.5">
+      <c r="I48" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J48" s="25">
+        <f ca="1">INT((H48-I48)/30)</f>
+        <v>5</v>
+      </c>
+      <c r="K48" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M48" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="17">
         <v>42338</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="17">
         <v>42314</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="17">
         <v>43044</v>
       </c>
-      <c r="I49" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>42863</v>
-      </c>
-      <c r="J49" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>181</v>
-      </c>
-      <c r="K49" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" ht="19.5">
+      <c r="I49" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J49" s="25">
+        <f ca="1">INT((H49-I49)/30)</f>
+        <v>5</v>
+      </c>
+      <c r="K49" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M49" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="17">
         <v>42338</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="17">
         <v>42314</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="17">
         <v>43044</v>
       </c>
-      <c r="I50" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>42863</v>
-      </c>
-      <c r="J50" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>181</v>
-      </c>
-      <c r="K50" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" ht="19.5">
+      <c r="I50" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J50" s="25">
+        <f ca="1">INT((H50-I50)/30)</f>
+        <v>5</v>
+      </c>
+      <c r="K50" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M50" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="D51" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="17">
         <v>42338</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="17">
         <v>42320</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="17">
         <v>43050</v>
       </c>
-      <c r="I51" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>42863</v>
-      </c>
-      <c r="J51" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>187</v>
-      </c>
-      <c r="K51" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" ht="19.5">
+      <c r="I51" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J51" s="25">
+        <f ca="1">INT((H51-I51)/30)</f>
+        <v>5</v>
+      </c>
+      <c r="K51" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M51" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="E52" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="17">
         <v>42338</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="17">
         <v>42320</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="17">
         <v>43050</v>
       </c>
-      <c r="I52" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>42863</v>
-      </c>
-      <c r="J52" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>187</v>
-      </c>
-      <c r="K52" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" ht="19.5">
+      <c r="I52" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J52" s="25">
+        <f ca="1">INT((H52-I52)/30)</f>
+        <v>5</v>
+      </c>
+      <c r="K52" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M52" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="17">
         <v>42380</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="17">
         <v>42346</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="17">
         <v>43076</v>
       </c>
-      <c r="I53" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>42863</v>
-      </c>
-      <c r="J53" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>213</v>
-      </c>
-      <c r="K53" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" ht="19.5">
+      <c r="I53" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J53" s="25">
+        <f ca="1">INT((H53-I53)/30)</f>
+        <v>6</v>
+      </c>
+      <c r="K53" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M53" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="17">
         <v>42380</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="17">
         <v>42346</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="17">
         <v>43076</v>
       </c>
-      <c r="I54" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>42863</v>
-      </c>
-      <c r="J54" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>213</v>
-      </c>
-      <c r="K54" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" ht="19.5">
+      <c r="I54" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J54" s="25">
+        <f ca="1">INT((H54-I54)/30)</f>
+        <v>6</v>
+      </c>
+      <c r="K54" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M54" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="D55" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="17">
         <v>42452</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="17">
         <v>42382</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="17">
         <v>43112</v>
       </c>
-      <c r="I55" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>42863</v>
-      </c>
-      <c r="J55" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>249</v>
-      </c>
-      <c r="K55" s="4">
-        <f t="shared" ca="1" si="5"/>
+      <c r="I55" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J55" s="25">
+        <f ca="1">INT((H55-I55)/30)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="2:11" ht="19.5">
+      <c r="K55" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M55" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E56" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E56" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="17">
         <v>42452</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56" s="17">
         <v>42382</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="17">
         <v>43112</v>
       </c>
-      <c r="I56" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>42863</v>
-      </c>
-      <c r="J56" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>249</v>
-      </c>
-      <c r="K56" s="4">
-        <f t="shared" ca="1" si="5"/>
+      <c r="I56" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J56" s="25">
+        <f ca="1">INT((H56-I56)/30)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="2:11" ht="19.5">
+      <c r="K56" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M56" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
         <v>204</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="17">
         <v>42597</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="17">
         <v>42457</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="17">
         <v>43186</v>
       </c>
-      <c r="I57" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>42863</v>
-      </c>
-      <c r="J57" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>323</v>
-      </c>
-      <c r="K57" s="4">
-        <f t="shared" ca="1" si="5"/>
+      <c r="I57" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J57" s="25">
+        <f ca="1">INT((H57-I57)/30)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="2:11" ht="19.5">
+      <c r="K57" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M57" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>32</v>
@@ -6164,34 +6543,37 @@
       <c r="D58" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="17">
         <v>42597</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="17">
         <v>42457</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="17">
         <v>43186</v>
       </c>
-      <c r="I58" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>42863</v>
-      </c>
-      <c r="J58" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>323</v>
-      </c>
-      <c r="K58" s="4">
-        <f t="shared" ca="1" si="5"/>
+      <c r="I58" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J58" s="25">
+        <f ca="1">INT((H58-I58)/30)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="2:11" ht="19.5">
+      <c r="K58" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M58" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>203</v>
@@ -6199,32 +6581,35 @@
       <c r="D59" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="17">
         <v>42597</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="17">
         <v>42496</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="17">
         <v>43225</v>
       </c>
-      <c r="I59" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>42863</v>
-      </c>
-      <c r="J59" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>362</v>
-      </c>
-      <c r="K59" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" ht="19.5">
+      <c r="I59" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J59" s="25">
+        <f ca="1">INT((H59-I59)/30)</f>
+        <v>11</v>
+      </c>
+      <c r="K59" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M59" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
         <v>205</v>
       </c>
@@ -6234,32 +6619,35 @@
       <c r="D60" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="17">
         <v>42625</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60" s="17">
         <v>42496</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H60" s="17">
         <v>43225</v>
       </c>
-      <c r="I60" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>42863</v>
-      </c>
-      <c r="J60" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>362</v>
-      </c>
-      <c r="K60" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" ht="19.5">
+      <c r="I60" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J60" s="25">
+        <f ca="1">INT((H60-I60)/30)</f>
+        <v>11</v>
+      </c>
+      <c r="K60" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M60" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
         <v>33</v>
       </c>
@@ -6269,349 +6657,379 @@
       <c r="D61" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="17">
         <v>42625</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61" s="17">
         <v>42496</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H61" s="17">
         <v>43225</v>
       </c>
-      <c r="I61" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>42863</v>
-      </c>
-      <c r="J61" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>362</v>
-      </c>
-      <c r="K61" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" ht="19.5">
+      <c r="I61" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J61" s="25">
+        <f ca="1">INT((H61-I61)/30)</f>
+        <v>11</v>
+      </c>
+      <c r="K61" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M61" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="F62" s="17">
+        <v>42631</v>
+      </c>
+      <c r="G62" s="17">
+        <v>42573</v>
+      </c>
+      <c r="H62" s="17">
+        <v>43302</v>
+      </c>
+      <c r="I62" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J62" s="25">
+        <f ca="1">INT((H62-I62)/30)</f>
+        <v>14</v>
+      </c>
+      <c r="K62" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M62" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B63" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F63" s="17">
+        <v>42631</v>
+      </c>
+      <c r="G63" s="17">
+        <v>42573</v>
+      </c>
+      <c r="H63" s="17">
+        <v>43302</v>
+      </c>
+      <c r="I63" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J63" s="25">
+        <f ca="1">INT((H63-I63)/30)</f>
+        <v>14</v>
+      </c>
+      <c r="K63" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M63" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B64" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="F64" s="17">
+        <v>42631</v>
+      </c>
+      <c r="G64" s="17">
+        <v>42573</v>
+      </c>
+      <c r="H64" s="17">
+        <v>43302</v>
+      </c>
+      <c r="I64" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J64" s="25">
+        <f ca="1">INT((H64-I64)/30)</f>
+        <v>14</v>
+      </c>
+      <c r="K64" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M64" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B65" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="F65" s="17">
+        <v>42631</v>
+      </c>
+      <c r="G65" s="17">
+        <v>42573</v>
+      </c>
+      <c r="H65" s="17">
+        <v>43302</v>
+      </c>
+      <c r="I65" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J65" s="25">
+        <f ca="1">INT((H65-I65)/30)</f>
+        <v>14</v>
+      </c>
+      <c r="K65" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M65" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B66" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F66" s="17">
+        <v>42631</v>
+      </c>
+      <c r="G66" s="17">
+        <v>42573</v>
+      </c>
+      <c r="H66" s="17">
+        <v>43302</v>
+      </c>
+      <c r="I66" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J66" s="25">
+        <f ca="1">INT((H66-I66)/30)</f>
+        <v>14</v>
+      </c>
+      <c r="K66" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M66" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B67" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F67" s="17">
+        <v>42631</v>
+      </c>
+      <c r="G67" s="17">
+        <v>42573</v>
+      </c>
+      <c r="H67" s="17">
+        <v>43302</v>
+      </c>
+      <c r="I67" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J67" s="25">
+        <f ca="1">INT((H67-I67)/30)</f>
+        <v>14</v>
+      </c>
+      <c r="K67" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M67" s="13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B68" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F68" s="17">
+        <v>42631</v>
+      </c>
+      <c r="G68" s="17">
+        <v>42573</v>
+      </c>
+      <c r="H68" s="17">
+        <v>43302</v>
+      </c>
+      <c r="I68" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J68" s="25">
+        <f ca="1">INT((H68-I68)/30)</f>
+        <v>14</v>
+      </c>
+      <c r="K68" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M68" s="13" t="str">
+        <f t="shared" ref="M68:M110" ca="1" si="1">IF(AND(J68&lt;0,K68="否"),"是","否")</f>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B69" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C62" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="F62" s="3">
+      <c r="D69" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F69" s="17">
         <v>42631</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G69" s="17">
         <v>42573</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H69" s="17">
         <v>43302</v>
       </c>
-      <c r="I62" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>42863</v>
-      </c>
-      <c r="J62" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>439</v>
-      </c>
-      <c r="K62" s="4">
-        <f t="shared" ca="1" si="5"/>
+      <c r="I69" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J69" s="25">
+        <f ca="1">INT((H69-I69)/30)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="63" spans="2:11" ht="19.5">
-      <c r="B63" s="1" t="s">
+      <c r="K69" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M69" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B70" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C63" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="F63" s="3">
+      <c r="D70" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F70" s="17">
         <v>42631</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G70" s="17">
         <v>42573</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H70" s="17">
         <v>43302</v>
       </c>
-      <c r="I63" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>42863</v>
-      </c>
-      <c r="J63" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>439</v>
-      </c>
-      <c r="K63" s="4">
-        <f t="shared" ca="1" si="5"/>
+      <c r="I70" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J70" s="25">
+        <f ca="1">INT((H70-I70)/30)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="64" spans="2:11" ht="19.5">
-      <c r="B64" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="F64" s="3">
-        <v>42631</v>
-      </c>
-      <c r="G64" s="3">
-        <v>42573</v>
-      </c>
-      <c r="H64" s="3">
-        <v>43302</v>
-      </c>
-      <c r="I64" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>42863</v>
-      </c>
-      <c r="J64" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>439</v>
-      </c>
-      <c r="K64" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" ht="19.5">
-      <c r="B65" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="F65" s="3">
-        <v>42631</v>
-      </c>
-      <c r="G65" s="3">
-        <v>42573</v>
-      </c>
-      <c r="H65" s="3">
-        <v>43302</v>
-      </c>
-      <c r="I65" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>42863</v>
-      </c>
-      <c r="J65" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>439</v>
-      </c>
-      <c r="K65" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" ht="19.5">
-      <c r="B66" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="F66" s="3">
-        <v>42631</v>
-      </c>
-      <c r="G66" s="3">
-        <v>42573</v>
-      </c>
-      <c r="H66" s="3">
-        <v>43302</v>
-      </c>
-      <c r="I66" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>42863</v>
-      </c>
-      <c r="J66" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>439</v>
-      </c>
-      <c r="K66" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" ht="19.5">
-      <c r="B67" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="F67" s="3">
-        <v>42631</v>
-      </c>
-      <c r="G67" s="3">
-        <v>42573</v>
-      </c>
-      <c r="H67" s="3">
-        <v>43302</v>
-      </c>
-      <c r="I67" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>42863</v>
-      </c>
-      <c r="J67" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>439</v>
-      </c>
-      <c r="K67" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" ht="19.5">
-      <c r="B68" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="F68" s="3">
-        <v>42631</v>
-      </c>
-      <c r="G68" s="3">
-        <v>42573</v>
-      </c>
-      <c r="H68" s="3">
-        <v>43302</v>
-      </c>
-      <c r="I68" s="3">
-        <f t="shared" ref="I68:I99" ca="1" si="6">TODAY()</f>
-        <v>42863</v>
-      </c>
-      <c r="J68" s="2">
-        <f t="shared" ref="J68:J99" ca="1" si="7">INT(-I68+H68)</f>
-        <v>439</v>
-      </c>
-      <c r="K68" s="4">
-        <f t="shared" ref="K68:K99" ca="1" si="8">INT(J68/30)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" ht="19.5">
-      <c r="B69" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="F69" s="3">
-        <v>42631</v>
-      </c>
-      <c r="G69" s="3">
-        <v>42573</v>
-      </c>
-      <c r="H69" s="3">
-        <v>43302</v>
-      </c>
-      <c r="I69" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>42863</v>
-      </c>
-      <c r="J69" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>439</v>
-      </c>
-      <c r="K69" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" ht="19.5">
-      <c r="B70" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="F70" s="3">
-        <v>42631</v>
-      </c>
-      <c r="G70" s="3">
-        <v>42573</v>
-      </c>
-      <c r="H70" s="3">
-        <v>43302</v>
-      </c>
-      <c r="I70" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>42863</v>
-      </c>
-      <c r="J70" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>439</v>
-      </c>
-      <c r="K70" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" ht="19.5">
-      <c r="B71" s="11" t="s">
-        <v>294</v>
+      <c r="K70" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M70" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B71" s="6" t="s">
+        <v>292</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>30</v>
@@ -6619,34 +7037,37 @@
       <c r="D71" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="17">
         <v>42683</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G71" s="17">
         <v>42585</v>
       </c>
-      <c r="H71" s="3">
+      <c r="H71" s="17">
         <v>43314</v>
       </c>
-      <c r="I71" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>42863</v>
-      </c>
-      <c r="J71" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>451</v>
-      </c>
-      <c r="K71" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" ht="19.5">
+      <c r="I71" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J71" s="25">
+        <f ca="1">INT((H71-I71)/30)</f>
+        <v>14</v>
+      </c>
+      <c r="K71" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M71" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B72" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>31</v>
@@ -6654,104 +7075,113 @@
       <c r="D72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="17">
         <v>42683</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="17">
         <v>42585</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="17">
         <v>43314</v>
       </c>
-      <c r="I72" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>42863</v>
-      </c>
-      <c r="J72" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>451</v>
-      </c>
-      <c r="K72" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" ht="19.5">
+      <c r="I72" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J72" s="25">
+        <f ca="1">INT((H72-I72)/30)</f>
+        <v>14</v>
+      </c>
+      <c r="K72" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M72" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B73" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="17">
         <v>42683</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G73" s="17">
         <v>42585</v>
       </c>
-      <c r="H73" s="3">
+      <c r="H73" s="17">
         <v>43314</v>
       </c>
-      <c r="I73" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>42863</v>
-      </c>
-      <c r="J73" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>451</v>
-      </c>
-      <c r="K73" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11" ht="19.5">
+      <c r="I73" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J73" s="25">
+        <f ca="1">INT((H73-I73)/30)</f>
+        <v>14</v>
+      </c>
+      <c r="K73" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M73" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B74" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="17">
         <v>42683</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G74" s="17">
         <v>42585</v>
       </c>
-      <c r="H74" s="3">
+      <c r="H74" s="17">
         <v>43314</v>
       </c>
-      <c r="I74" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>42863</v>
-      </c>
-      <c r="J74" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>451</v>
-      </c>
-      <c r="K74" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11" ht="19.5">
+      <c r="I74" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J74" s="25">
+        <f ca="1">INT((H74-I74)/30)</f>
+        <v>14</v>
+      </c>
+      <c r="K74" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M74" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B75" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>212</v>
@@ -6759,34 +7189,37 @@
       <c r="D75" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="17">
         <v>42683</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G75" s="17">
         <v>42585</v>
       </c>
-      <c r="H75" s="3">
+      <c r="H75" s="17">
         <v>43314</v>
       </c>
-      <c r="I75" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>42863</v>
-      </c>
-      <c r="J75" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>451</v>
-      </c>
-      <c r="K75" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11" ht="19.5">
+      <c r="I75" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J75" s="25">
+        <f ca="1">INT((H75-I75)/30)</f>
+        <v>14</v>
+      </c>
+      <c r="K75" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M75" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B76" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>212</v>
@@ -6794,67 +7227,73 @@
       <c r="D76" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="17">
         <v>42683</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G76" s="17">
         <v>42585</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H76" s="17">
         <v>43314</v>
       </c>
-      <c r="I76" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>42863</v>
-      </c>
-      <c r="J76" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>451</v>
-      </c>
-      <c r="K76" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" ht="19.5">
+      <c r="I76" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J76" s="25">
+        <f ca="1">INT((H76-I76)/30)</f>
+        <v>14</v>
+      </c>
+      <c r="K76" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M76" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="D77" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="17">
         <v>42683</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G77" s="17">
         <v>42585</v>
       </c>
-      <c r="H77" s="3">
+      <c r="H77" s="17">
         <v>43314</v>
       </c>
-      <c r="I77" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>42863</v>
-      </c>
-      <c r="J77" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>451</v>
-      </c>
-      <c r="K77" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="2:11" ht="19.5">
+      <c r="I77" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J77" s="25">
+        <f ca="1">INT((H77-I77)/30)</f>
+        <v>14</v>
+      </c>
+      <c r="K77" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M77" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B78" s="1" t="s">
         <v>214</v>
       </c>
@@ -6864,69 +7303,75 @@
       <c r="D78" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="17">
         <v>42683</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G78" s="17">
         <v>42585</v>
       </c>
-      <c r="H78" s="3">
+      <c r="H78" s="17">
         <v>43314</v>
       </c>
-      <c r="I78" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>42863</v>
-      </c>
-      <c r="J78" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>451</v>
-      </c>
-      <c r="K78" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11" ht="19.5">
+      <c r="I78" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J78" s="25">
+        <f ca="1">INT((H78-I78)/30)</f>
+        <v>14</v>
+      </c>
+      <c r="K78" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M78" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="D79" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D79" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="E79" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79" s="17">
         <v>42683</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G79" s="17">
         <v>42639</v>
       </c>
-      <c r="H79" s="3">
+      <c r="H79" s="17">
         <v>43368</v>
       </c>
-      <c r="I79" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>42863</v>
-      </c>
-      <c r="J79" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>505</v>
-      </c>
-      <c r="K79" s="4">
-        <f t="shared" ca="1" si="8"/>
+      <c r="I79" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J79" s="25">
+        <f ca="1">INT((H79-I79)/30)</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="80" spans="2:11" ht="19.5">
+      <c r="K79" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M79" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B80" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>30</v>
@@ -6934,34 +7379,37 @@
       <c r="D80" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E80" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="17">
         <v>42706</v>
       </c>
-      <c r="G80" s="3">
+      <c r="G80" s="17">
         <v>42681</v>
       </c>
-      <c r="H80" s="3">
+      <c r="H80" s="17">
         <v>43410</v>
       </c>
-      <c r="I80" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>42863</v>
-      </c>
-      <c r="J80" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>547</v>
-      </c>
-      <c r="K80" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11" ht="19.5">
+      <c r="I80" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J80" s="25">
+        <f ca="1">INT((H80-I80)/30)</f>
+        <v>17</v>
+      </c>
+      <c r="K80" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M80" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B81" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>200</v>
@@ -6969,209 +7417,227 @@
       <c r="D81" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="17">
         <v>42706</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81" s="17">
         <v>42681</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="17">
         <v>43410</v>
       </c>
-      <c r="I81" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>42863</v>
-      </c>
-      <c r="J81" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>547</v>
-      </c>
-      <c r="K81" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11" ht="19.5">
+      <c r="I81" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J81" s="25">
+        <f ca="1">INT((H81-I81)/30)</f>
+        <v>17</v>
+      </c>
+      <c r="K81" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M81" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B82" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>237</v>
+        <v>281</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E82" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="17">
         <v>42706</v>
       </c>
-      <c r="G82" s="3">
+      <c r="G82" s="17">
         <v>42681</v>
       </c>
-      <c r="H82" s="3">
+      <c r="H82" s="17">
         <v>43410</v>
       </c>
-      <c r="I82" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>42863</v>
-      </c>
-      <c r="J82" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>547</v>
-      </c>
-      <c r="K82" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11" ht="19.5">
+      <c r="I82" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J82" s="25">
+        <f ca="1">INT((H82-I82)/30)</f>
+        <v>17</v>
+      </c>
+      <c r="K82" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M82" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B83" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C83" s="9" t="s">
-        <v>258</v>
+      <c r="C83" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="17">
         <v>42706</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="17">
         <v>42681</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="17">
         <v>43410</v>
       </c>
-      <c r="I83" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>42863</v>
-      </c>
-      <c r="J83" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>547</v>
-      </c>
-      <c r="K83" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="84" spans="2:11" ht="19.5">
+      <c r="I83" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J83" s="25">
+        <f ca="1">INT((H83-I83)/30)</f>
+        <v>17</v>
+      </c>
+      <c r="K83" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M83" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B84" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E84" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="17">
         <v>42706</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G84" s="17">
         <v>42681</v>
       </c>
-      <c r="H84" s="3">
+      <c r="H84" s="17">
         <v>43410</v>
       </c>
-      <c r="I84" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>42863</v>
-      </c>
-      <c r="J84" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>547</v>
-      </c>
-      <c r="K84" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="85" spans="2:11" ht="19.5">
+      <c r="I84" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J84" s="25">
+        <f ca="1">INT((H84-I84)/30)</f>
+        <v>17</v>
+      </c>
+      <c r="K84" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M84" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B85" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E85" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85" s="17">
         <v>42706</v>
       </c>
-      <c r="G85" s="3">
+      <c r="G85" s="17">
         <v>42681</v>
       </c>
-      <c r="H85" s="3">
+      <c r="H85" s="17">
         <v>43410</v>
       </c>
-      <c r="I85" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>42863</v>
-      </c>
-      <c r="J85" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>547</v>
-      </c>
-      <c r="K85" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11" ht="19.5">
+      <c r="I85" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J85" s="25">
+        <f ca="1">INT((H85-I85)/30)</f>
+        <v>17</v>
+      </c>
+      <c r="K85" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M85" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B86" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E86" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="17">
         <v>42706</v>
       </c>
-      <c r="G86" s="3">
+      <c r="G86" s="17">
         <v>42681</v>
       </c>
-      <c r="H86" s="3">
+      <c r="H86" s="17">
         <v>43410</v>
       </c>
-      <c r="I86" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>42863</v>
-      </c>
-      <c r="J86" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>547</v>
-      </c>
-      <c r="K86" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87" spans="2:11" ht="19.5">
+      <c r="I86" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J86" s="25">
+        <f ca="1">INT((H86-I86)/30)</f>
+        <v>17</v>
+      </c>
+      <c r="K86" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M86" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B87" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>209</v>
@@ -7179,34 +7645,37 @@
       <c r="D87" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E87" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87" s="17">
         <v>42706</v>
       </c>
-      <c r="G87" s="3">
+      <c r="G87" s="17">
         <v>42681</v>
       </c>
-      <c r="H87" s="3">
+      <c r="H87" s="17">
         <v>43410</v>
       </c>
-      <c r="I87" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>42863</v>
-      </c>
-      <c r="J87" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>547</v>
-      </c>
-      <c r="K87" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="88" spans="2:11" ht="19.5">
+      <c r="I87" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J87" s="25">
+        <f ca="1">INT((H87-I87)/30)</f>
+        <v>17</v>
+      </c>
+      <c r="K87" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M87" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B88" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>211</v>
@@ -7214,104 +7683,113 @@
       <c r="D88" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E88" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F88" s="17">
         <v>42706</v>
       </c>
-      <c r="G88" s="3">
+      <c r="G88" s="17">
         <v>42681</v>
       </c>
-      <c r="H88" s="3">
+      <c r="H88" s="17">
         <v>43410</v>
       </c>
-      <c r="I88" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>42863</v>
-      </c>
-      <c r="J88" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>547</v>
-      </c>
-      <c r="K88" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11" ht="19.5">
+      <c r="I88" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J88" s="25">
+        <f ca="1">INT((H88-I88)/30)</f>
+        <v>17</v>
+      </c>
+      <c r="K88" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M88" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B89" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E89" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="17">
         <v>42706</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="17">
         <v>42681</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="17">
         <v>43410</v>
       </c>
-      <c r="I89" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>42863</v>
-      </c>
-      <c r="J89" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>547</v>
-      </c>
-      <c r="K89" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11" ht="19.5">
+      <c r="I89" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J89" s="25">
+        <f ca="1">INT((H89-I89)/30)</f>
+        <v>17</v>
+      </c>
+      <c r="K89" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M89" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B90" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E90" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90" s="17">
         <v>42706</v>
       </c>
-      <c r="G90" s="3">
+      <c r="G90" s="17">
         <v>42681</v>
       </c>
-      <c r="H90" s="3">
+      <c r="H90" s="17">
         <v>43410</v>
       </c>
-      <c r="I90" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>42863</v>
-      </c>
-      <c r="J90" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>547</v>
-      </c>
-      <c r="K90" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="91" spans="2:11" ht="19.5">
+      <c r="I90" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J90" s="25">
+        <f ca="1">INT((H90-I90)/30)</f>
+        <v>17</v>
+      </c>
+      <c r="K90" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M90" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B91" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>205</v>
@@ -7319,34 +7797,37 @@
       <c r="D91" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E91" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="17">
         <v>42706</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="17">
         <v>42681</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="17">
         <v>43410</v>
       </c>
-      <c r="I91" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>42863</v>
-      </c>
-      <c r="J91" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>547</v>
-      </c>
-      <c r="K91" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" spans="2:11" ht="19.5">
+      <c r="I91" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J91" s="25">
+        <f ca="1">INT((H91-I91)/30)</f>
+        <v>17</v>
+      </c>
+      <c r="K91" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M91" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B92" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>207</v>
@@ -7354,139 +7835,151 @@
       <c r="D92" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E92" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92" s="17">
         <v>42706</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G92" s="17">
         <v>42681</v>
       </c>
-      <c r="H92" s="3">
+      <c r="H92" s="17">
         <v>43410</v>
       </c>
-      <c r="I92" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>42863</v>
-      </c>
-      <c r="J92" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>547</v>
-      </c>
-      <c r="K92" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="93" spans="2:11" ht="19.5">
+      <c r="I92" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J92" s="25">
+        <f ca="1">INT((H92-I92)/30)</f>
+        <v>17</v>
+      </c>
+      <c r="K92" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M92" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B93" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="D93" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D93" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E93" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93" s="17">
         <v>40560</v>
       </c>
-      <c r="G93" s="3">
+      <c r="G93" s="17">
         <v>40560</v>
       </c>
-      <c r="H93" s="3">
+      <c r="H93" s="17">
         <v>43482</v>
       </c>
-      <c r="I93" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>42863</v>
-      </c>
-      <c r="J93" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>619</v>
-      </c>
-      <c r="K93" s="4">
-        <f t="shared" ca="1" si="8"/>
+      <c r="I93" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J93" s="25">
+        <f ca="1">INT((H93-I93)/30)</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="94" spans="2:11" ht="19.5">
+      <c r="K93" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M93" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B94" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="D94" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E94" s="9" t="s">
+      <c r="E94" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="17">
         <v>40560</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="17">
         <v>40560</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="17">
         <v>43482</v>
       </c>
-      <c r="I94" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>42863</v>
-      </c>
-      <c r="J94" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>619</v>
-      </c>
-      <c r="K94" s="4">
-        <f t="shared" ca="1" si="8"/>
+      <c r="I94" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J94" s="25">
+        <f ca="1">INT((H94-I94)/30)</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="95" spans="2:11" ht="19.5">
+      <c r="K94" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M94" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B95" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="D95" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D95" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E95" s="9" t="s">
+      <c r="E95" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95" s="17">
         <v>40560</v>
       </c>
-      <c r="G95" s="3">
+      <c r="G95" s="17">
         <v>40560</v>
       </c>
-      <c r="H95" s="3">
+      <c r="H95" s="17">
         <v>43482</v>
       </c>
-      <c r="I95" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>42863</v>
-      </c>
-      <c r="J95" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>619</v>
-      </c>
-      <c r="K95" s="4">
-        <f t="shared" ca="1" si="8"/>
+      <c r="I95" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J95" s="25">
+        <f ca="1">INT((H95-I95)/30)</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="96" spans="2:11" ht="19.5">
+      <c r="K95" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M95" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B96" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>220</v>
@@ -7494,34 +7987,37 @@
       <c r="D96" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E96" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96" s="17">
         <v>40560</v>
       </c>
-      <c r="G96" s="3">
+      <c r="G96" s="17">
         <v>40560</v>
       </c>
-      <c r="H96" s="3">
+      <c r="H96" s="17">
         <v>43482</v>
       </c>
-      <c r="I96" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>42863</v>
-      </c>
-      <c r="J96" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>619</v>
-      </c>
-      <c r="K96" s="4">
-        <f t="shared" ca="1" si="8"/>
+      <c r="I96" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J96" s="25">
+        <f ca="1">INT((H96-I96)/30)</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="97" spans="2:11" ht="19.5">
+      <c r="K96" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M96" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="97" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B97" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>220</v>
@@ -7529,69 +8025,75 @@
       <c r="D97" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E97" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97" s="17">
         <v>40560</v>
       </c>
-      <c r="G97" s="3">
+      <c r="G97" s="17">
         <v>40560</v>
       </c>
-      <c r="H97" s="3">
+      <c r="H97" s="17">
         <v>43482</v>
       </c>
-      <c r="I97" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>42863</v>
-      </c>
-      <c r="J97" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>619</v>
-      </c>
-      <c r="K97" s="4">
-        <f t="shared" ca="1" si="8"/>
+      <c r="I97" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J97" s="25">
+        <f ca="1">INT((H97-I97)/30)</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="98" spans="2:11" ht="19.5">
+      <c r="K97" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M97" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="98" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B98" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="D98" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D98" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E98" s="9" t="s">
+      <c r="E98" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98" s="17">
         <v>40560</v>
       </c>
-      <c r="G98" s="3">
+      <c r="G98" s="17">
         <v>40560</v>
       </c>
-      <c r="H98" s="3">
+      <c r="H98" s="17">
         <v>43482</v>
       </c>
-      <c r="I98" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>42863</v>
-      </c>
-      <c r="J98" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>619</v>
-      </c>
-      <c r="K98" s="4">
-        <f t="shared" ca="1" si="8"/>
+      <c r="I98" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J98" s="25">
+        <f ca="1">INT((H98-I98)/30)</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="99" spans="2:11" ht="19.5">
+      <c r="K98" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M98" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B99" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>216</v>
@@ -7599,428 +8101,480 @@
       <c r="D99" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E99" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="17">
         <v>40560</v>
       </c>
-      <c r="G99" s="3">
+      <c r="G99" s="17">
         <v>40560</v>
       </c>
-      <c r="H99" s="3">
+      <c r="H99" s="17">
         <v>43482</v>
       </c>
-      <c r="I99" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>42863</v>
-      </c>
-      <c r="J99" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>619</v>
-      </c>
-      <c r="K99" s="4">
-        <f t="shared" ca="1" si="8"/>
+      <c r="I99" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J99" s="25">
+        <f ca="1">INT((H99-I99)/30)</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="100" spans="2:11" ht="19.5">
+      <c r="K99" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M99" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B100" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E100" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="17">
         <v>40560</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="17">
         <v>40560</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="17">
         <v>43482</v>
       </c>
-      <c r="I100" s="3">
-        <f t="shared" ref="I100:I110" ca="1" si="9">TODAY()</f>
-        <v>42863</v>
-      </c>
-      <c r="J100" s="2">
-        <f t="shared" ref="J100:J131" ca="1" si="10">INT(-I100+H100)</f>
-        <v>619</v>
-      </c>
-      <c r="K100" s="4">
-        <f t="shared" ref="K100:K131" ca="1" si="11">INT(J100/30)</f>
+      <c r="I100" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J100" s="25">
+        <f ca="1">INT((H100-I100)/30)</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="101" spans="2:11" ht="19.5">
+      <c r="K100" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M100" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="101" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B101" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="D101" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D101" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E101" s="9" t="s">
+      <c r="E101" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="17">
         <v>40560</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101" s="17">
         <v>40560</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="17">
         <v>43482</v>
       </c>
-      <c r="I101" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>42863</v>
-      </c>
-      <c r="J101" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>619</v>
-      </c>
-      <c r="K101" s="4">
-        <f t="shared" ca="1" si="11"/>
+      <c r="I101" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J101" s="25">
+        <f ca="1">INT((H101-I101)/30)</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="102" spans="2:11" ht="19.5">
+      <c r="K101" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M101" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="102" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B102" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C102" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D102" s="9" t="s">
+      <c r="D102" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E102" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="E102" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F102" s="17">
         <v>40729</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102" s="17">
         <v>40729</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="17">
         <v>43651</v>
       </c>
-      <c r="I102" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>42863</v>
-      </c>
-      <c r="J102" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>788</v>
-      </c>
-      <c r="K102" s="4">
-        <f t="shared" ca="1" si="11"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="103" spans="2:11" ht="19.5">
+      <c r="I102" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J102" s="25">
+        <f ca="1">INT((H102-I102)/30)</f>
+        <v>25</v>
+      </c>
+      <c r="K102" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M102" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="103" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B103" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F103" s="17">
+        <v>41271</v>
+      </c>
+      <c r="G103" s="17">
+        <v>41271</v>
+      </c>
+      <c r="H103" s="17">
+        <v>44193</v>
+      </c>
+      <c r="I103" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J103" s="25">
+        <f ca="1">INT((H103-I103)/30)</f>
+        <v>44</v>
+      </c>
+      <c r="K103" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M103" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="104" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B104" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D103" s="9" t="s">
+      <c r="C104" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D104" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E103" s="9" t="s">
+      <c r="E104" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F104" s="17">
         <v>41271</v>
       </c>
-      <c r="G103" s="3">
+      <c r="G104" s="17">
         <v>41271</v>
       </c>
-      <c r="H103" s="3">
+      <c r="H104" s="17">
         <v>44193</v>
       </c>
-      <c r="I103" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>42863</v>
-      </c>
-      <c r="J103" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>1330</v>
-      </c>
-      <c r="K103" s="4">
-        <f t="shared" ca="1" si="11"/>
+      <c r="I104" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J104" s="25">
+        <f ca="1">INT((H104-I104)/30)</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="104" spans="2:11" ht="19.5">
-      <c r="B104" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F104" s="3">
-        <v>41271</v>
-      </c>
-      <c r="G104" s="3">
-        <v>41271</v>
-      </c>
-      <c r="H104" s="3">
-        <v>44193</v>
-      </c>
-      <c r="I104" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>42863</v>
-      </c>
-      <c r="J104" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>1330</v>
-      </c>
-      <c r="K104" s="4">
-        <f t="shared" ca="1" si="11"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="105" spans="2:11" ht="19.5">
+      <c r="K104" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M104" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="105" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B105" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D105" s="9" t="s">
+      <c r="D105" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E105" s="9" t="s">
+      <c r="E105" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F105" s="3">
+      <c r="F105" s="17">
         <v>41271</v>
       </c>
-      <c r="G105" s="3">
+      <c r="G105" s="17">
         <v>41271</v>
       </c>
-      <c r="H105" s="3">
+      <c r="H105" s="17">
         <v>44193</v>
       </c>
-      <c r="I105" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>42863</v>
-      </c>
-      <c r="J105" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>1330</v>
-      </c>
-      <c r="K105" s="4">
-        <f t="shared" ca="1" si="11"/>
+      <c r="I105" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J105" s="25">
+        <f ca="1">INT((H105-I105)/30)</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="106" spans="2:11" ht="19.5">
+      <c r="K105" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M105" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="106" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B106" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D106" s="9" t="s">
+      <c r="D106" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E106" s="9" t="s">
+      <c r="E106" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="F106" s="3">
+      <c r="F106" s="17">
         <v>41271</v>
       </c>
-      <c r="G106" s="3">
+      <c r="G106" s="17">
         <v>41271</v>
       </c>
-      <c r="H106" s="3">
+      <c r="H106" s="17">
         <v>44193</v>
       </c>
-      <c r="I106" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>42863</v>
-      </c>
-      <c r="J106" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>1330</v>
-      </c>
-      <c r="K106" s="4">
-        <f t="shared" ca="1" si="11"/>
+      <c r="I106" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J106" s="25">
+        <f ca="1">INT((H106-I106)/30)</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="107" spans="2:11" ht="19.5">
+      <c r="K106" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M106" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="107" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B107" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C107" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C107" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D107" s="9" t="s">
+      <c r="D107" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E107" s="9" t="s">
+      <c r="E107" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="F107" s="3">
+      <c r="F107" s="17">
         <v>41271</v>
       </c>
-      <c r="G107" s="3">
+      <c r="G107" s="17">
         <v>41271</v>
       </c>
-      <c r="H107" s="3">
+      <c r="H107" s="17">
         <v>44193</v>
       </c>
-      <c r="I107" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>42863</v>
-      </c>
-      <c r="J107" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>1330</v>
-      </c>
-      <c r="K107" s="4">
-        <f t="shared" ca="1" si="11"/>
+      <c r="I107" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J107" s="25">
+        <f ca="1">INT((H107-I107)/30)</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="108" spans="2:11" ht="19.5">
+      <c r="K107" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M107" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="108" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B108" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="D108" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D108" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E108" s="9" t="s">
+      <c r="E108" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="F108" s="3">
+      <c r="F108" s="17">
         <v>41271</v>
       </c>
-      <c r="G108" s="3">
+      <c r="G108" s="17">
         <v>41271</v>
       </c>
-      <c r="H108" s="3">
+      <c r="H108" s="17">
         <v>44193</v>
       </c>
-      <c r="I108" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>42863</v>
-      </c>
-      <c r="J108" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>1330</v>
-      </c>
-      <c r="K108" s="4">
-        <f t="shared" ca="1" si="11"/>
+      <c r="I108" s="17">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J108" s="25">
+        <f ca="1">INT((H108-I108)/30)</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="109" spans="2:11" ht="19.5">
-      <c r="B109" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="D109" s="9" t="s">
+      <c r="K108" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M108" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="109" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B109" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="D109" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="E109" s="9" t="s">
+      <c r="E109" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="F109" s="3">
+      <c r="F109" s="23">
         <v>41355</v>
       </c>
-      <c r="G109" s="3">
+      <c r="G109" s="23">
         <v>41355</v>
       </c>
-      <c r="H109" s="3">
+      <c r="H109" s="23">
         <v>44277</v>
       </c>
-      <c r="I109" s="3">
-        <f t="shared" ca="1" si="9"/>
-        <v>42863</v>
-      </c>
-      <c r="J109" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>1414</v>
-      </c>
-      <c r="K109" s="4">
-        <f t="shared" ca="1" si="11"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="110" spans="2:11" ht="20.25" thickBot="1">
-      <c r="B110" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="C110" s="10" t="s">
+      <c r="I109" s="23">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J109" s="25">
+        <f ca="1">INT((H109-I109)/30)</f>
+        <v>46</v>
+      </c>
+      <c r="K109" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="M109" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="110" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="C110" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="D110" s="10" t="s">
+      <c r="D110" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="E110" s="10" t="s">
+      <c r="E110" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="F110" s="13">
+      <c r="F110" s="23">
         <v>41617</v>
       </c>
-      <c r="G110" s="13">
+      <c r="G110" s="23">
         <v>41617</v>
       </c>
-      <c r="H110" s="13">
+      <c r="H110" s="23">
         <v>44539</v>
       </c>
-      <c r="I110" s="13">
-        <f t="shared" ca="1" si="9"/>
-        <v>42863</v>
-      </c>
-      <c r="J110" s="5">
-        <f t="shared" ca="1" si="10"/>
-        <v>1676</v>
-      </c>
-      <c r="K110" s="14">
-        <f t="shared" ca="1" si="11"/>
+      <c r="I110" s="23">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
+      </c>
+      <c r="J110" s="25">
+        <f ca="1">INT((H110-I110)/30)</f>
         <v>55</v>
       </c>
+      <c r="K110" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="M110" s="13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>否</v>
+      </c>
+    </row>
+    <row r="111" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
+      <c r="E111" s="27"/>
+      <c r="F111" s="27"/>
+      <c r="G111" s="27"/>
+      <c r="H111" s="27"/>
+      <c r="I111" s="27"/>
+      <c r="J111" s="27"/>
+      <c r="K111" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:K3">
+  <autoFilter ref="B2:J3">
     <filterColumn colId="5" showButton="0"/>
-    <sortState ref="B5:K110">
-      <sortCondition ref="K2:K3"/>
+    <sortState ref="B5:J112">
+      <sortCondition ref="J2:J3"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="9">
-    <mergeCell ref="B1:K1"/>
+  <mergeCells count="11">
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="B1:J1"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="J2:J3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="D2:D3"/>
@@ -8028,8 +8582,8 @@
     <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="M1:M10 M12:M1048576">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="num" val="6"/>
         <cfvo type="num" val="12"/>
@@ -8040,8 +8594,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K1048576 K2">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="J112:J1048576 J2 J4:J110">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="9"/>
@@ -8052,8 +8606,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K110">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="J110">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="6"/>
         <cfvo type="num" val="11"/>
@@ -8063,7 +8617,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8074,6 +8628,38 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J110">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="num" val="6"/>
+        <cfvo type="num" val="11"/>
+        <cfvo type="num" val="12"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:K111">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>ADD($J$4&lt;0,$K$4="否")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="输入内容错误" error="请输入“是”或“否”。" sqref="K112:K1048576 K1:K110">
+      <formula1>$L$2:$L$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="B71" r:id="rId1"/>
   </hyperlinks>
@@ -8090,101 +8676,101 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="36" customHeight="1" thickBot="1">
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="2:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+    </row>
+    <row r="2" spans="2:11" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B2" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B3" s="34"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="40"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="45"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C4" t="s">
         <v>332</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-    </row>
-    <row r="2" spans="2:11" ht="20.25">
-      <c r="B2" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="20.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="23"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>333</v>
       </c>
-      <c r="C4" t="s">
-        <v>334</v>
-      </c>
-      <c r="E4" t="s">
-        <v>335</v>
-      </c>
-      <c r="G4" s="16">
+      <c r="G4" s="8">
         <v>41217</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="8">
         <v>43473</v>
       </c>
-      <c r="I4" s="16">
-        <f ca="1">TODAY()</f>
-        <v>42863</v>
+      <c r="I4" s="8">
+        <f ca="1">TODAY()</f>
+        <v>42872</v>
       </c>
       <c r="J4">
         <f ca="1">INT(-I4+H4)</f>
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="K4">
         <f ca="1">INT(J4/30)</f>
@@ -8203,6 +8789,7 @@
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="K2:K3"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M1:M3">
     <cfRule type="colorScale" priority="2">
       <colorScale>

--- a/产品认证证书有效管控.xlsx
+++ b/产品认证证书有效管控.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -2889,17 +2889,27 @@
   </si>
   <si>
     <r>
-      <t>TOEL-08-LED-B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>立式停止排灯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标准停止排灯（</t>
     </r>
     <r>
       <rPr>
@@ -2908,7 +2918,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>TOL-08</t>
+      <t>LED</t>
     </r>
     <r>
       <rPr>
@@ -2931,20 +2941,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>立式停止排灯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>标准停止排灯（</t>
+      <t>停止排灯（卤素灯</t>
     </r>
     <r>
       <rPr>
@@ -2953,30 +2950,30 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>LED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>停止排灯（卤素灯</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非加厚型）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中间等待位置灯（卤素灯</t>
     </r>
     <r>
       <rPr>
@@ -2995,20 +2992,33 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>非加厚型）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中间等待位置灯（卤素灯</t>
+      <t>标准直线段）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>滑行道中线灯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中间等待位置灯（</t>
     </r>
     <r>
       <rPr>
@@ -3017,43 +3027,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>标准直线段）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>滑行道中线灯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中间等待位置灯（</t>
+      <t>LED 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>英寸</t>
     </r>
     <r>
       <rPr>
@@ -3062,17 +3046,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>LED 8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>英寸</t>
+      <t xml:space="preserve"> 12mm ICAO)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中间等待位置灯（非标</t>
     </r>
     <r>
       <rPr>
@@ -3081,20 +3068,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> 12mm ICAO)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中间等待位置灯（非标</t>
+      <t xml:space="preserve"> LED 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>英寸</t>
     </r>
     <r>
       <rPr>
@@ -3103,17 +3087,33 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> LED 8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>英寸</t>
+      <t xml:space="preserve"> 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>螺栓）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -3122,33 +3122,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>螺栓）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>BP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <r>
       <rPr>
@@ -3157,17 +3141,23 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+      <t>B3SHDIII</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -3176,23 +3166,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>B3SHDIII</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>BP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <r>
       <rPr>
@@ -3201,17 +3185,23 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+      <t>B3SHDII</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -3220,23 +3210,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>B3SHDII</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>BP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <r>
       <rPr>
@@ -3245,17 +3229,23 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+      <t>B3SHDI</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -3264,23 +3254,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>B3SHDI</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>BP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <r>
       <rPr>
@@ -3289,17 +3273,23 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+      <t>B3SHDII</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -3308,23 +3298,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>B3SHDII</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>BP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <r>
       <rPr>
@@ -3333,17 +3317,23 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+      <t>B3SHDIII</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -3352,23 +3342,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>B3SHDIII</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>BP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <r>
       <rPr>
@@ -3377,17 +3361,23 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+      <t>B3SHDI</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -3396,23 +3386,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>B3SHDI</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>BP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <r>
       <rPr>
@@ -3421,17 +3405,23 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+      <t>Y3SHDII</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -3440,23 +3430,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Y3SHDII</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>BP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <r>
       <rPr>
@@ -3465,17 +3449,23 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+      <t>Y3SHDIII</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -3484,23 +3474,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Y3SHDIII</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>BP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <r>
       <rPr>
@@ -3509,17 +3493,20 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
+      <t>Y3SHDI</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>立式航空障碍灯（低光强</t>
     </r>
     <r>
       <rPr>
@@ -3528,20 +3515,141 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Y3SHDI</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>立式航空障碍灯（低光强</t>
+      <t>LED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品认证证书有效期管控（CAAC证书）</t>
+  </si>
+  <si>
+    <t>产品认证证书有效期管控（FAA证书）</t>
+  </si>
+  <si>
+    <t>RCL-08</t>
+  </si>
+  <si>
+    <t>L-850-Lights, Runway, Inpavement</t>
+  </si>
+  <si>
+    <t>100441792CRT-001</t>
+  </si>
+  <si>
+    <t>LF11R051</t>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通告编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通告日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否继续认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余有效时间（月）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑行道引导标记牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请插入新行，添加新的产品认证信息…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否失效该条目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>嵌入式滑行道边灯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TOEL-08-LED-B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="仿宋"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
     </r>
     <r>
       <rPr>
@@ -3550,7 +3658,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>LED</t>
+      <t>TOL-08</t>
     </r>
     <r>
       <rPr>
@@ -3561,114 +3669,6 @@
         <charset val="134"/>
       </rPr>
       <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品认证证书有效期管控（CAAC证书）</t>
-  </si>
-  <si>
-    <t>产品认证证书有效期管控（FAA证书）</t>
-  </si>
-  <si>
-    <t>RCL-08</t>
-  </si>
-  <si>
-    <t>L-850-Lights, Runway, Inpavement</t>
-  </si>
-  <si>
-    <t>100441792CRT-001</t>
-  </si>
-  <si>
-    <t>LF11R051</t>
-  </si>
-  <si>
-    <t>产品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通告编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通告日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>截止日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否继续认证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余有效时间（月）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑行道引导标记牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请插入新行，添加新的产品认证信息…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否失效该条目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>LED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="仿宋"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>嵌入式滑行道边灯</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4096,17 +4096,7 @@
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="解释性文本" xfId="2" builtinId="53"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <strike/>
@@ -4390,11 +4380,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:M111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -4414,7 +4405,7 @@
   <sheetData>
     <row r="1" spans="2:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
@@ -4427,38 +4418,38 @@
     </row>
     <row r="2" spans="2:13" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B2" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>335</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="D2" s="39" t="s">
         <v>336</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="E2" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="F2" s="35" t="s">
         <v>338</v>
       </c>
-      <c r="F2" s="35" t="s">
-        <v>339</v>
-      </c>
       <c r="G2" s="39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H2" s="41"/>
       <c r="I2" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="K2" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="J2" s="37" t="s">
-        <v>349</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>344</v>
-      </c>
       <c r="L2" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="20.25" x14ac:dyDescent="0.25">
@@ -4468,16 +4459,16 @@
       <c r="E3" s="43"/>
       <c r="F3" s="36"/>
       <c r="G3" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>340</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>341</v>
       </c>
       <c r="I3" s="36"/>
       <c r="J3" s="38"/>
       <c r="K3" s="30"/>
       <c r="L3" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M3" s="31"/>
     </row>
@@ -4504,15 +4495,15 @@
         <v>42453</v>
       </c>
       <c r="I4" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ref="I4:I35" ca="1" si="0">TODAY()</f>
+        <v>42873</v>
       </c>
       <c r="J4" s="25">
-        <f ca="1">INT((H4-I4)/30)</f>
+        <f t="shared" ref="J4:J35" ca="1" si="1">INT((H4-I4)/30)</f>
         <v>-14</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M4" s="13" t="str">
         <f ca="1">IF(AND(J4&lt;0,K4="否"),"是","否")</f>
@@ -4542,18 +4533,18 @@
         <v>42575</v>
       </c>
       <c r="I5" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42873</v>
       </c>
       <c r="J5" s="25">
-        <f ca="1">INT((H5-I5)/30)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>-10</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M5" s="13" t="str">
-        <f t="shared" ref="M5:M67" ca="1" si="0">IF(AND(J5&lt;0,K5="否"),"是","否")</f>
+        <f t="shared" ref="M5:M67" ca="1" si="2">IF(AND(J5&lt;0,K5="否"),"是","否")</f>
         <v>否</v>
       </c>
     </row>
@@ -4562,7 +4553,7 @@
         <v>230</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>181</v>
@@ -4580,18 +4571,18 @@
         <v>42575</v>
       </c>
       <c r="I6" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42873</v>
       </c>
       <c r="J6" s="25">
-        <f ca="1">INT((H6-I6)/30)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>-10</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M6" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -4618,18 +4609,18 @@
         <v>42684</v>
       </c>
       <c r="I7" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42873</v>
       </c>
       <c r="J7" s="25">
-        <f ca="1">INT((H7-I7)/30)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>-7</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M7" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -4656,18 +4647,18 @@
         <v>42684</v>
       </c>
       <c r="I8" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42873</v>
       </c>
       <c r="J8" s="25">
-        <f ca="1">INT((H8-I8)/30)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>-7</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M8" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -4694,18 +4685,18 @@
         <v>42680</v>
       </c>
       <c r="I9" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42873</v>
       </c>
       <c r="J9" s="25">
-        <f ca="1">INT((H9-I9)/30)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>-7</v>
       </c>
       <c r="K9" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M9" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -4732,24 +4723,24 @@
         <v>42680</v>
       </c>
       <c r="I10" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42873</v>
       </c>
       <c r="J10" s="25">
-        <f ca="1">INT((H10-I10)/30)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>-7</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M10" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>278</v>
@@ -4770,18 +4761,18 @@
         <v>42842</v>
       </c>
       <c r="I11" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42873</v>
       </c>
       <c r="J11" s="25">
-        <f ca="1">INT((H11-I11)/30)</f>
-        <v>-1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-2</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M11" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -4808,18 +4799,18 @@
         <v>42930</v>
       </c>
       <c r="I12" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42873</v>
       </c>
       <c r="J12" s="25">
-        <f ca="1">INT((H12-I12)/30)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M12" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -4846,18 +4837,18 @@
         <v>42930</v>
       </c>
       <c r="I13" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42873</v>
       </c>
       <c r="J13" s="25">
-        <f ca="1">INT((H13-I13)/30)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M13" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -4884,18 +4875,18 @@
         <v>42930</v>
       </c>
       <c r="I14" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42873</v>
       </c>
       <c r="J14" s="25">
-        <f ca="1">INT((H14-I14)/30)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M14" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -4922,18 +4913,18 @@
         <v>42930</v>
       </c>
       <c r="I15" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42873</v>
       </c>
       <c r="J15" s="25">
-        <f ca="1">INT((H15-I15)/30)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M15" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -4960,18 +4951,18 @@
         <v>42930</v>
       </c>
       <c r="I16" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42873</v>
       </c>
       <c r="J16" s="25">
-        <f ca="1">INT((H16-I16)/30)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M16" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -4983,7 +4974,7 @@
         <v>288</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>146</v>
@@ -4998,18 +4989,18 @@
         <v>42937</v>
       </c>
       <c r="I17" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42873</v>
       </c>
       <c r="J17" s="25">
-        <f ca="1">INT((H17-I17)/30)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M17" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -5036,18 +5027,18 @@
         <v>42937</v>
       </c>
       <c r="I18" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42873</v>
       </c>
       <c r="J18" s="25">
-        <f ca="1">INT((H18-I18)/30)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M18" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -5074,18 +5065,18 @@
         <v>42937</v>
       </c>
       <c r="I19" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42873</v>
       </c>
       <c r="J19" s="25">
-        <f ca="1">INT((H19-I19)/30)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M19" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -5112,18 +5103,18 @@
         <v>42937</v>
       </c>
       <c r="I20" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42873</v>
       </c>
       <c r="J20" s="25">
-        <f ca="1">INT((H20-I20)/30)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M20" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -5150,18 +5141,18 @@
         <v>42937</v>
       </c>
       <c r="I21" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42873</v>
       </c>
       <c r="J21" s="25">
-        <f ca="1">INT((H21-I21)/30)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M21" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -5188,18 +5179,18 @@
         <v>42937</v>
       </c>
       <c r="I22" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42873</v>
       </c>
       <c r="J22" s="25">
-        <f ca="1">INT((H22-I22)/30)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M22" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -5226,18 +5217,18 @@
         <v>42937</v>
       </c>
       <c r="I23" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42873</v>
       </c>
       <c r="J23" s="25">
-        <f ca="1">INT((H23-I23)/30)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="K23" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M23" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -5264,18 +5255,18 @@
         <v>42937</v>
       </c>
       <c r="I24" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42873</v>
       </c>
       <c r="J24" s="25">
-        <f ca="1">INT((H24-I24)/30)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="K24" s="24" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M24" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -5302,18 +5293,18 @@
         <v>42937</v>
       </c>
       <c r="I25" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42873</v>
       </c>
       <c r="J25" s="25">
-        <f ca="1">INT((H25-I25)/30)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="K25" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M25" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -5340,18 +5331,18 @@
         <v>42937</v>
       </c>
       <c r="I26" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42873</v>
       </c>
       <c r="J26" s="25">
-        <f ca="1">INT((H26-I26)/30)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="K26" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M26" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -5378,18 +5369,18 @@
         <v>42937</v>
       </c>
       <c r="I27" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42873</v>
       </c>
       <c r="J27" s="25">
-        <f ca="1">INT((H27-I27)/30)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M27" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -5416,18 +5407,18 @@
         <v>42937</v>
       </c>
       <c r="I28" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42873</v>
       </c>
       <c r="J28" s="25">
-        <f ca="1">INT((H28-I28)/30)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="K28" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M28" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -5454,18 +5445,18 @@
         <v>42937</v>
       </c>
       <c r="I29" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42873</v>
       </c>
       <c r="J29" s="25">
-        <f ca="1">INT((H29-I29)/30)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="K29" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M29" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -5492,18 +5483,18 @@
         <v>42937</v>
       </c>
       <c r="I30" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42873</v>
       </c>
       <c r="J30" s="25">
-        <f ca="1">INT((H30-I30)/30)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M30" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -5530,18 +5521,18 @@
         <v>42937</v>
       </c>
       <c r="I31" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42873</v>
       </c>
       <c r="J31" s="25">
-        <f ca="1">INT((H31-I31)/30)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="K31" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M31" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -5568,18 +5559,18 @@
         <v>43001</v>
       </c>
       <c r="I32" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42873</v>
       </c>
       <c r="J32" s="25">
-        <f ca="1">INT((H32-I32)/30)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
       <c r="K32" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M32" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -5606,18 +5597,18 @@
         <v>43044</v>
       </c>
       <c r="I33" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42873</v>
       </c>
       <c r="J33" s="25">
-        <f ca="1">INT((H33-I33)/30)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
       <c r="K33" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M33" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -5644,18 +5635,18 @@
         <v>43044</v>
       </c>
       <c r="I34" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42873</v>
       </c>
       <c r="J34" s="25">
-        <f ca="1">INT((H34-I34)/30)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
       <c r="K34" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M34" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -5682,18 +5673,18 @@
         <v>43046</v>
       </c>
       <c r="I35" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42873</v>
       </c>
       <c r="J35" s="25">
-        <f ca="1">INT((H35-I35)/30)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
       <c r="K35" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M35" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -5720,18 +5711,18 @@
         <v>43044</v>
       </c>
       <c r="I36" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ref="I36:I67" ca="1" si="3">TODAY()</f>
+        <v>42873</v>
       </c>
       <c r="J36" s="25">
-        <f ca="1">INT((H36-I36)/30)</f>
+        <f t="shared" ref="J36:J67" ca="1" si="4">INT((H36-I36)/30)</f>
         <v>5</v>
       </c>
       <c r="K36" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M36" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -5758,18 +5749,18 @@
         <v>43044</v>
       </c>
       <c r="I37" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42873</v>
       </c>
       <c r="J37" s="25">
-        <f ca="1">INT((H37-I37)/30)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M37" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -5796,18 +5787,18 @@
         <v>43044</v>
       </c>
       <c r="I38" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42873</v>
       </c>
       <c r="J38" s="25">
-        <f ca="1">INT((H38-I38)/30)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M38" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -5834,18 +5825,18 @@
         <v>43044</v>
       </c>
       <c r="I39" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42873</v>
       </c>
       <c r="J39" s="25">
-        <f ca="1">INT((H39-I39)/30)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
       <c r="K39" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M39" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -5872,18 +5863,18 @@
         <v>43044</v>
       </c>
       <c r="I40" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42873</v>
       </c>
       <c r="J40" s="25">
-        <f ca="1">INT((H40-I40)/30)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
       <c r="K40" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M40" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -5910,18 +5901,18 @@
         <v>43044</v>
       </c>
       <c r="I41" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42873</v>
       </c>
       <c r="J41" s="25">
-        <f ca="1">INT((H41-I41)/30)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
       <c r="K41" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M41" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -5948,18 +5939,18 @@
         <v>43044</v>
       </c>
       <c r="I42" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42873</v>
       </c>
       <c r="J42" s="25">
-        <f ca="1">INT((H42-I42)/30)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
       <c r="K42" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M42" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -5986,18 +5977,18 @@
         <v>43044</v>
       </c>
       <c r="I43" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42873</v>
       </c>
       <c r="J43" s="25">
-        <f ca="1">INT((H43-I43)/30)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
       <c r="K43" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M43" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -6024,18 +6015,18 @@
         <v>43044</v>
       </c>
       <c r="I44" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42873</v>
       </c>
       <c r="J44" s="25">
-        <f ca="1">INT((H44-I44)/30)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
       <c r="K44" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M44" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -6062,18 +6053,18 @@
         <v>43044</v>
       </c>
       <c r="I45" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42873</v>
       </c>
       <c r="J45" s="25">
-        <f ca="1">INT((H45-I45)/30)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
       <c r="K45" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M45" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -6100,18 +6091,18 @@
         <v>43044</v>
       </c>
       <c r="I46" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42873</v>
       </c>
       <c r="J46" s="25">
-        <f ca="1">INT((H46-I46)/30)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
       <c r="K46" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M46" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -6138,18 +6129,18 @@
         <v>43044</v>
       </c>
       <c r="I47" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42873</v>
       </c>
       <c r="J47" s="25">
-        <f ca="1">INT((H47-I47)/30)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
       <c r="K47" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M47" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -6176,18 +6167,18 @@
         <v>43044</v>
       </c>
       <c r="I48" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42873</v>
       </c>
       <c r="J48" s="25">
-        <f ca="1">INT((H48-I48)/30)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
       <c r="K48" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M48" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -6214,18 +6205,18 @@
         <v>43044</v>
       </c>
       <c r="I49" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42873</v>
       </c>
       <c r="J49" s="25">
-        <f ca="1">INT((H49-I49)/30)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
       <c r="K49" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M49" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -6252,18 +6243,18 @@
         <v>43044</v>
       </c>
       <c r="I50" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42873</v>
       </c>
       <c r="J50" s="25">
-        <f ca="1">INT((H50-I50)/30)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
       <c r="K50" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M50" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -6290,18 +6281,18 @@
         <v>43050</v>
       </c>
       <c r="I51" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42873</v>
       </c>
       <c r="J51" s="25">
-        <f ca="1">INT((H51-I51)/30)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
       <c r="K51" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M51" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -6328,18 +6319,18 @@
         <v>43050</v>
       </c>
       <c r="I52" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42873</v>
       </c>
       <c r="J52" s="25">
-        <f ca="1">INT((H52-I52)/30)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
       <c r="K52" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M52" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -6366,18 +6357,18 @@
         <v>43076</v>
       </c>
       <c r="I53" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42873</v>
       </c>
       <c r="J53" s="25">
-        <f ca="1">INT((H53-I53)/30)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>6</v>
       </c>
       <c r="K53" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M53" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -6404,18 +6395,18 @@
         <v>43076</v>
       </c>
       <c r="I54" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42873</v>
       </c>
       <c r="J54" s="25">
-        <f ca="1">INT((H54-I54)/30)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>6</v>
       </c>
       <c r="K54" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M54" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -6442,18 +6433,18 @@
         <v>43112</v>
       </c>
       <c r="I55" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42873</v>
       </c>
       <c r="J55" s="25">
-        <f ca="1">INT((H55-I55)/30)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
       </c>
       <c r="K55" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M55" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -6480,18 +6471,18 @@
         <v>43112</v>
       </c>
       <c r="I56" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42873</v>
       </c>
       <c r="J56" s="25">
-        <f ca="1">INT((H56-I56)/30)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
       </c>
       <c r="K56" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M56" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -6518,18 +6509,18 @@
         <v>43186</v>
       </c>
       <c r="I57" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42873</v>
       </c>
       <c r="J57" s="25">
-        <f ca="1">INT((H57-I57)/30)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>10</v>
       </c>
       <c r="K57" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M57" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -6556,18 +6547,18 @@
         <v>43186</v>
       </c>
       <c r="I58" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42873</v>
       </c>
       <c r="J58" s="25">
-        <f ca="1">INT((H58-I58)/30)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>10</v>
       </c>
       <c r="K58" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M58" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -6594,18 +6585,18 @@
         <v>43225</v>
       </c>
       <c r="I59" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42873</v>
       </c>
       <c r="J59" s="25">
-        <f ca="1">INT((H59-I59)/30)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>11</v>
       </c>
       <c r="K59" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M59" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -6632,18 +6623,18 @@
         <v>43225</v>
       </c>
       <c r="I60" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42873</v>
       </c>
       <c r="J60" s="25">
-        <f ca="1">INT((H60-I60)/30)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>11</v>
       </c>
       <c r="K60" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M60" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -6670,18 +6661,18 @@
         <v>43225</v>
       </c>
       <c r="I61" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42873</v>
       </c>
       <c r="J61" s="25">
-        <f ca="1">INT((H61-I61)/30)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>11</v>
       </c>
       <c r="K61" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M61" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -6693,7 +6684,7 @@
         <v>232</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>190</v>
@@ -6708,18 +6699,18 @@
         <v>43302</v>
       </c>
       <c r="I62" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42873</v>
       </c>
       <c r="J62" s="25">
-        <f ca="1">INT((H62-I62)/30)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>14</v>
       </c>
       <c r="K62" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M62" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -6731,7 +6722,7 @@
         <v>232</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>188</v>
@@ -6746,18 +6737,18 @@
         <v>43302</v>
       </c>
       <c r="I63" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42873</v>
       </c>
       <c r="J63" s="25">
-        <f ca="1">INT((H63-I63)/30)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>14</v>
       </c>
       <c r="K63" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M63" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -6769,7 +6760,7 @@
         <v>233</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>189</v>
@@ -6784,18 +6775,18 @@
         <v>43302</v>
       </c>
       <c r="I64" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42873</v>
       </c>
       <c r="J64" s="25">
-        <f ca="1">INT((H64-I64)/30)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>14</v>
       </c>
       <c r="K64" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M64" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -6807,7 +6798,7 @@
         <v>232</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>187</v>
@@ -6822,18 +6813,18 @@
         <v>43302</v>
       </c>
       <c r="I65" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42873</v>
       </c>
       <c r="J65" s="25">
-        <f ca="1">INT((H65-I65)/30)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>14</v>
       </c>
       <c r="K65" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M65" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -6845,7 +6836,7 @@
         <v>233</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>185</v>
@@ -6860,18 +6851,18 @@
         <v>43302</v>
       </c>
       <c r="I66" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42873</v>
       </c>
       <c r="J66" s="25">
-        <f ca="1">INT((H66-I66)/30)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>14</v>
       </c>
       <c r="K66" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M66" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -6883,7 +6874,7 @@
         <v>231</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>186</v>
@@ -6898,18 +6889,18 @@
         <v>43302</v>
       </c>
       <c r="I67" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>42873</v>
       </c>
       <c r="J67" s="25">
-        <f ca="1">INT((H67-I67)/30)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>14</v>
       </c>
       <c r="K67" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M67" s="13" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>否</v>
       </c>
     </row>
@@ -6921,7 +6912,7 @@
         <v>232</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>184</v>
@@ -6936,18 +6927,18 @@
         <v>43302</v>
       </c>
       <c r="I68" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ref="I68:I99" ca="1" si="5">TODAY()</f>
+        <v>42873</v>
       </c>
       <c r="J68" s="25">
-        <f ca="1">INT((H68-I68)/30)</f>
+        <f t="shared" ref="J68:J99" ca="1" si="6">INT((H68-I68)/30)</f>
         <v>14</v>
       </c>
       <c r="K68" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M68" s="13" t="str">
-        <f t="shared" ref="M68:M110" ca="1" si="1">IF(AND(J68&lt;0,K68="否"),"是","否")</f>
+        <f t="shared" ref="M68:M110" ca="1" si="7">IF(AND(J68&lt;0,K68="否"),"是","否")</f>
         <v>否</v>
       </c>
     </row>
@@ -6959,7 +6950,7 @@
         <v>268</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>183</v>
@@ -6974,18 +6965,18 @@
         <v>43302</v>
       </c>
       <c r="I69" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42873</v>
       </c>
       <c r="J69" s="25">
-        <f ca="1">INT((H69-I69)/30)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>14</v>
       </c>
       <c r="K69" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M69" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
@@ -6997,7 +6988,7 @@
         <v>231</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>182</v>
@@ -7012,18 +7003,18 @@
         <v>43302</v>
       </c>
       <c r="I70" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42873</v>
       </c>
       <c r="J70" s="25">
-        <f ca="1">INT((H70-I70)/30)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>14</v>
       </c>
       <c r="K70" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M70" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
@@ -7050,18 +7041,18 @@
         <v>43314</v>
       </c>
       <c r="I71" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42873</v>
       </c>
       <c r="J71" s="25">
-        <f ca="1">INT((H71-I71)/30)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>14</v>
       </c>
       <c r="K71" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M71" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
@@ -7088,18 +7079,18 @@
         <v>43314</v>
       </c>
       <c r="I72" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42873</v>
       </c>
       <c r="J72" s="25">
-        <f ca="1">INT((H72-I72)/30)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>14</v>
       </c>
       <c r="K72" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M72" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
@@ -7126,18 +7117,18 @@
         <v>43314</v>
       </c>
       <c r="I73" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42873</v>
       </c>
       <c r="J73" s="25">
-        <f ca="1">INT((H73-I73)/30)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>14</v>
       </c>
       <c r="K73" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M73" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
@@ -7164,18 +7155,18 @@
         <v>43314</v>
       </c>
       <c r="I74" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42873</v>
       </c>
       <c r="J74" s="25">
-        <f ca="1">INT((H74-I74)/30)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>14</v>
       </c>
       <c r="K74" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M74" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
@@ -7202,18 +7193,18 @@
         <v>43314</v>
       </c>
       <c r="I75" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42873</v>
       </c>
       <c r="J75" s="25">
-        <f ca="1">INT((H75-I75)/30)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>14</v>
       </c>
       <c r="K75" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M75" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
@@ -7240,24 +7231,24 @@
         <v>43314</v>
       </c>
       <c r="I76" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42873</v>
       </c>
       <c r="J76" s="25">
-        <f ca="1">INT((H76-I76)/30)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>14</v>
       </c>
       <c r="K76" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M76" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
     <row r="77" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>255</v>
@@ -7278,18 +7269,18 @@
         <v>43314</v>
       </c>
       <c r="I77" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42873</v>
       </c>
       <c r="J77" s="25">
-        <f ca="1">INT((H77-I77)/30)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>14</v>
       </c>
       <c r="K77" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M77" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
@@ -7316,18 +7307,18 @@
         <v>43314</v>
       </c>
       <c r="I78" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42873</v>
       </c>
       <c r="J78" s="25">
-        <f ca="1">INT((H78-I78)/30)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>14</v>
       </c>
       <c r="K78" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M78" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
@@ -7354,18 +7345,18 @@
         <v>43368</v>
       </c>
       <c r="I79" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42873</v>
       </c>
       <c r="J79" s="25">
-        <f ca="1">INT((H79-I79)/30)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>16</v>
       </c>
       <c r="K79" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M79" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
@@ -7392,18 +7383,18 @@
         <v>43410</v>
       </c>
       <c r="I80" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42873</v>
       </c>
       <c r="J80" s="25">
-        <f ca="1">INT((H80-I80)/30)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>17</v>
       </c>
       <c r="K80" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M80" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
@@ -7430,18 +7421,18 @@
         <v>43410</v>
       </c>
       <c r="I81" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42873</v>
       </c>
       <c r="J81" s="25">
-        <f ca="1">INT((H81-I81)/30)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>17</v>
       </c>
       <c r="K81" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M81" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
@@ -7468,18 +7459,18 @@
         <v>43410</v>
       </c>
       <c r="I82" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42873</v>
       </c>
       <c r="J82" s="25">
-        <f ca="1">INT((H82-I82)/30)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>17</v>
       </c>
       <c r="K82" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M82" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
@@ -7506,18 +7497,18 @@
         <v>43410</v>
       </c>
       <c r="I83" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42873</v>
       </c>
       <c r="J83" s="25">
-        <f ca="1">INT((H83-I83)/30)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>17</v>
       </c>
       <c r="K83" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M83" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
@@ -7544,18 +7535,18 @@
         <v>43410</v>
       </c>
       <c r="I84" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42873</v>
       </c>
       <c r="J84" s="25">
-        <f ca="1">INT((H84-I84)/30)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>17</v>
       </c>
       <c r="K84" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M84" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
@@ -7582,18 +7573,18 @@
         <v>43410</v>
       </c>
       <c r="I85" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42873</v>
       </c>
       <c r="J85" s="25">
-        <f ca="1">INT((H85-I85)/30)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>17</v>
       </c>
       <c r="K85" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M85" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
@@ -7620,18 +7611,18 @@
         <v>43410</v>
       </c>
       <c r="I86" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42873</v>
       </c>
       <c r="J86" s="25">
-        <f ca="1">INT((H86-I86)/30)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>17</v>
       </c>
       <c r="K86" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M86" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
@@ -7658,18 +7649,18 @@
         <v>43410</v>
       </c>
       <c r="I87" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42873</v>
       </c>
       <c r="J87" s="25">
-        <f ca="1">INT((H87-I87)/30)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>17</v>
       </c>
       <c r="K87" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M87" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
@@ -7696,18 +7687,18 @@
         <v>43410</v>
       </c>
       <c r="I88" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42873</v>
       </c>
       <c r="J88" s="25">
-        <f ca="1">INT((H88-I88)/30)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>17</v>
       </c>
       <c r="K88" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M88" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
@@ -7734,18 +7725,18 @@
         <v>43410</v>
       </c>
       <c r="I89" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42873</v>
       </c>
       <c r="J89" s="25">
-        <f ca="1">INT((H89-I89)/30)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>17</v>
       </c>
       <c r="K89" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M89" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
@@ -7772,18 +7763,18 @@
         <v>43410</v>
       </c>
       <c r="I90" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42873</v>
       </c>
       <c r="J90" s="25">
-        <f ca="1">INT((H90-I90)/30)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>17</v>
       </c>
       <c r="K90" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M90" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
@@ -7810,18 +7801,18 @@
         <v>43410</v>
       </c>
       <c r="I91" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42873</v>
       </c>
       <c r="J91" s="25">
-        <f ca="1">INT((H91-I91)/30)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>17</v>
       </c>
       <c r="K91" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M91" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
@@ -7848,18 +7839,18 @@
         <v>43410</v>
       </c>
       <c r="I92" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42873</v>
       </c>
       <c r="J92" s="25">
-        <f ca="1">INT((H92-I92)/30)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>17</v>
       </c>
       <c r="K92" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M92" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
@@ -7886,18 +7877,18 @@
         <v>43482</v>
       </c>
       <c r="I93" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42873</v>
       </c>
       <c r="J93" s="25">
-        <f ca="1">INT((H93-I93)/30)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>20</v>
       </c>
       <c r="K93" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M93" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
@@ -7924,24 +7915,24 @@
         <v>43482</v>
       </c>
       <c r="I94" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42873</v>
       </c>
       <c r="J94" s="25">
-        <f ca="1">INT((H94-I94)/30)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>20</v>
       </c>
       <c r="K94" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M94" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
     <row r="95" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B95" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>289</v>
@@ -7962,18 +7953,18 @@
         <v>43482</v>
       </c>
       <c r="I95" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42873</v>
       </c>
       <c r="J95" s="25">
-        <f ca="1">INT((H95-I95)/30)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>20</v>
       </c>
       <c r="K95" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M95" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
@@ -8000,18 +7991,18 @@
         <v>43482</v>
       </c>
       <c r="I96" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42873</v>
       </c>
       <c r="J96" s="25">
-        <f ca="1">INT((H96-I96)/30)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>20</v>
       </c>
       <c r="K96" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M96" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
@@ -8038,24 +8029,24 @@
         <v>43482</v>
       </c>
       <c r="I97" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42873</v>
       </c>
       <c r="J97" s="25">
-        <f ca="1">INT((H97-I97)/30)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>20</v>
       </c>
       <c r="K97" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M97" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
     <row r="98" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B98" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>277</v>
@@ -8076,18 +8067,18 @@
         <v>43482</v>
       </c>
       <c r="I98" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42873</v>
       </c>
       <c r="J98" s="25">
-        <f ca="1">INT((H98-I98)/30)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>20</v>
       </c>
       <c r="K98" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M98" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
@@ -8114,18 +8105,18 @@
         <v>43482</v>
       </c>
       <c r="I99" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>42873</v>
       </c>
       <c r="J99" s="25">
-        <f ca="1">INT((H99-I99)/30)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>20</v>
       </c>
       <c r="K99" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M99" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
@@ -8152,27 +8143,27 @@
         <v>43482</v>
       </c>
       <c r="I100" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ref="I100:I110" ca="1" si="8">TODAY()</f>
+        <v>42873</v>
       </c>
       <c r="J100" s="25">
-        <f ca="1">INT((H100-I100)/30)</f>
+        <f t="shared" ref="J100:J110" ca="1" si="9">INT((H100-I100)/30)</f>
         <v>20</v>
       </c>
       <c r="K100" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M100" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
     <row r="101" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B101" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>315</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>159</v>
@@ -8190,18 +8181,18 @@
         <v>43482</v>
       </c>
       <c r="I101" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>42873</v>
       </c>
       <c r="J101" s="25">
-        <f ca="1">INT((H101-I101)/30)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>20</v>
       </c>
       <c r="K101" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M101" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
@@ -8216,7 +8207,7 @@
         <v>145</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F102" s="17">
         <v>40729</v>
@@ -8228,18 +8219,18 @@
         <v>43651</v>
       </c>
       <c r="I102" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>42873</v>
       </c>
       <c r="J102" s="25">
-        <f ca="1">INT((H102-I102)/30)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>25</v>
       </c>
       <c r="K102" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M102" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
@@ -8266,18 +8257,18 @@
         <v>44193</v>
       </c>
       <c r="I103" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>42873</v>
       </c>
       <c r="J103" s="25">
-        <f ca="1">INT((H103-I103)/30)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>44</v>
       </c>
       <c r="K103" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M103" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
@@ -8304,18 +8295,18 @@
         <v>44193</v>
       </c>
       <c r="I104" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>42873</v>
       </c>
       <c r="J104" s="25">
-        <f ca="1">INT((H104-I104)/30)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>44</v>
       </c>
       <c r="K104" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M104" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
@@ -8342,18 +8333,18 @@
         <v>44193</v>
       </c>
       <c r="I105" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>42873</v>
       </c>
       <c r="J105" s="25">
-        <f ca="1">INT((H105-I105)/30)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>44</v>
       </c>
       <c r="K105" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M105" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
@@ -8380,24 +8371,24 @@
         <v>44193</v>
       </c>
       <c r="I106" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>42873</v>
       </c>
       <c r="J106" s="25">
-        <f ca="1">INT((H106-I106)/30)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>44</v>
       </c>
       <c r="K106" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M106" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
     <row r="107" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B107" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>215</v>
@@ -8418,24 +8409,24 @@
         <v>44193</v>
       </c>
       <c r="I107" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>42873</v>
       </c>
       <c r="J107" s="25">
-        <f ca="1">INT((H107-I107)/30)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>44</v>
       </c>
       <c r="K107" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M107" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
     <row r="108" spans="2:13" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B108" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>262</v>
@@ -8456,18 +8447,18 @@
         <v>44193</v>
       </c>
       <c r="I108" s="17">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>42873</v>
       </c>
       <c r="J108" s="25">
-        <f ca="1">INT((H108-I108)/30)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>44</v>
       </c>
       <c r="K108" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M108" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
@@ -8494,24 +8485,24 @@
         <v>44277</v>
       </c>
       <c r="I109" s="23">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>42873</v>
       </c>
       <c r="J109" s="25">
-        <f ca="1">INT((H109-I109)/30)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>46</v>
       </c>
       <c r="K109" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M109" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
     <row r="110" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C110" s="21" t="s">
         <v>221</v>
@@ -8532,24 +8523,24 @@
         <v>44539</v>
       </c>
       <c r="I110" s="23">
-        <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>42873</v>
       </c>
       <c r="J110" s="25">
-        <f ca="1">INT((H110-I110)/30)</f>
+        <f t="shared" ca="1" si="9"/>
         <v>55</v>
       </c>
       <c r="K110" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M110" s="13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>否</v>
       </c>
     </row>
     <row r="111" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B111" s="26" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C111" s="27"/>
       <c r="D111" s="27"/>
@@ -8651,7 +8642,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:K111">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>ADD($J$4&lt;0,$K$4="否")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8670,6 +8661,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8690,7 +8682,7 @@
   <sheetData>
     <row r="1" spans="2:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="32" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
@@ -8750,13 +8742,13 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" t="s">
         <v>331</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>332</v>
-      </c>
-      <c r="E4" t="s">
-        <v>333</v>
       </c>
       <c r="G4" s="8">
         <v>41217</v>
@@ -8766,11 +8758,11 @@
       </c>
       <c r="I4" s="8">
         <f ca="1">TODAY()</f>
-        <v>42872</v>
+        <v>42873</v>
       </c>
       <c r="J4">
         <f ca="1">INT(-I4+H4)</f>
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="K4">
         <f ca="1">INT(J4/30)</f>

--- a/产品认证证书有效管控.xlsx
+++ b/产品认证证书有效管控.xlsx
@@ -4372,7 +4372,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4496,11 +4496,11 @@
       </c>
       <c r="I4" s="17">
         <f t="shared" ref="I4:I35" ca="1" si="0">TODAY()</f>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J4" s="25">
         <f t="shared" ref="J4:J35" ca="1" si="1">INT((H4-I4)/30)</f>
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="K4" s="24" t="s">
         <v>346</v>
@@ -4534,11 +4534,11 @@
       </c>
       <c r="I5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J5" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="K5" s="24" t="s">
         <v>344</v>
@@ -4572,11 +4572,11 @@
       </c>
       <c r="I6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J6" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="K6" s="24" t="s">
         <v>344</v>
@@ -4610,7 +4610,7 @@
       </c>
       <c r="I7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J7" s="25">
         <f t="shared" ca="1" si="1"/>
@@ -4648,7 +4648,7 @@
       </c>
       <c r="I8" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J8" s="25">
         <f t="shared" ca="1" si="1"/>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="I9" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J9" s="25">
         <f t="shared" ca="1" si="1"/>
@@ -4724,7 +4724,7 @@
       </c>
       <c r="I10" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J10" s="25">
         <f t="shared" ca="1" si="1"/>
@@ -4762,7 +4762,7 @@
       </c>
       <c r="I11" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J11" s="25">
         <f t="shared" ca="1" si="1"/>
@@ -4800,7 +4800,7 @@
       </c>
       <c r="I12" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J12" s="25">
         <f t="shared" ca="1" si="1"/>
@@ -4838,7 +4838,7 @@
       </c>
       <c r="I13" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J13" s="25">
         <f t="shared" ca="1" si="1"/>
@@ -4876,7 +4876,7 @@
       </c>
       <c r="I14" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J14" s="25">
         <f t="shared" ca="1" si="1"/>
@@ -4914,7 +4914,7 @@
       </c>
       <c r="I15" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J15" s="25">
         <f t="shared" ca="1" si="1"/>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="I16" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J16" s="25">
         <f t="shared" ca="1" si="1"/>
@@ -4990,11 +4990,11 @@
       </c>
       <c r="I17" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J17" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17" s="24" t="s">
         <v>344</v>
@@ -5028,11 +5028,11 @@
       </c>
       <c r="I18" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J18" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K18" s="24" t="s">
         <v>344</v>
@@ -5066,11 +5066,11 @@
       </c>
       <c r="I19" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J19" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K19" s="24" t="s">
         <v>344</v>
@@ -5104,11 +5104,11 @@
       </c>
       <c r="I20" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J20" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20" s="24" t="s">
         <v>344</v>
@@ -5142,11 +5142,11 @@
       </c>
       <c r="I21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J21" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K21" s="24" t="s">
         <v>344</v>
@@ -5180,11 +5180,11 @@
       </c>
       <c r="I22" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J22" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" s="24" t="s">
         <v>344</v>
@@ -5218,11 +5218,11 @@
       </c>
       <c r="I23" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J23" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23" s="24" t="s">
         <v>344</v>
@@ -5256,11 +5256,11 @@
       </c>
       <c r="I24" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J24" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K24" s="24" t="s">
         <v>350</v>
@@ -5294,11 +5294,11 @@
       </c>
       <c r="I25" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J25" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25" s="24" t="s">
         <v>344</v>
@@ -5332,11 +5332,11 @@
       </c>
       <c r="I26" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J26" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K26" s="24" t="s">
         <v>344</v>
@@ -5370,11 +5370,11 @@
       </c>
       <c r="I27" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J27" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K27" s="24" t="s">
         <v>344</v>
@@ -5408,11 +5408,11 @@
       </c>
       <c r="I28" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J28" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K28" s="24" t="s">
         <v>344</v>
@@ -5446,11 +5446,11 @@
       </c>
       <c r="I29" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J29" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K29" s="24" t="s">
         <v>344</v>
@@ -5484,11 +5484,11 @@
       </c>
       <c r="I30" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J30" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K30" s="24" t="s">
         <v>344</v>
@@ -5522,11 +5522,11 @@
       </c>
       <c r="I31" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J31" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K31" s="24" t="s">
         <v>344</v>
@@ -5560,11 +5560,11 @@
       </c>
       <c r="I32" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J32" s="25">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K32" s="24" t="s">
         <v>344</v>
@@ -5598,7 +5598,7 @@
       </c>
       <c r="I33" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J33" s="25">
         <f t="shared" ca="1" si="1"/>
@@ -5636,7 +5636,7 @@
       </c>
       <c r="I34" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J34" s="25">
         <f t="shared" ca="1" si="1"/>
@@ -5674,7 +5674,7 @@
       </c>
       <c r="I35" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J35" s="25">
         <f t="shared" ca="1" si="1"/>
@@ -5712,7 +5712,7 @@
       </c>
       <c r="I36" s="17">
         <f t="shared" ref="I36:I67" ca="1" si="3">TODAY()</f>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J36" s="25">
         <f t="shared" ref="J36:J67" ca="1" si="4">INT((H36-I36)/30)</f>
@@ -5750,7 +5750,7 @@
       </c>
       <c r="I37" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J37" s="25">
         <f t="shared" ca="1" si="4"/>
@@ -5788,7 +5788,7 @@
       </c>
       <c r="I38" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J38" s="25">
         <f t="shared" ca="1" si="4"/>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="I39" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J39" s="25">
         <f t="shared" ca="1" si="4"/>
@@ -5864,7 +5864,7 @@
       </c>
       <c r="I40" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J40" s="25">
         <f t="shared" ca="1" si="4"/>
@@ -5902,7 +5902,7 @@
       </c>
       <c r="I41" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J41" s="25">
         <f t="shared" ca="1" si="4"/>
@@ -5940,7 +5940,7 @@
       </c>
       <c r="I42" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J42" s="25">
         <f t="shared" ca="1" si="4"/>
@@ -5978,7 +5978,7 @@
       </c>
       <c r="I43" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J43" s="25">
         <f t="shared" ca="1" si="4"/>
@@ -6016,7 +6016,7 @@
       </c>
       <c r="I44" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J44" s="25">
         <f t="shared" ca="1" si="4"/>
@@ -6054,7 +6054,7 @@
       </c>
       <c r="I45" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J45" s="25">
         <f t="shared" ca="1" si="4"/>
@@ -6092,7 +6092,7 @@
       </c>
       <c r="I46" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J46" s="25">
         <f t="shared" ca="1" si="4"/>
@@ -6130,7 +6130,7 @@
       </c>
       <c r="I47" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J47" s="25">
         <f t="shared" ca="1" si="4"/>
@@ -6168,7 +6168,7 @@
       </c>
       <c r="I48" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J48" s="25">
         <f t="shared" ca="1" si="4"/>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="I49" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J49" s="25">
         <f t="shared" ca="1" si="4"/>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="I50" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J50" s="25">
         <f t="shared" ca="1" si="4"/>
@@ -6282,7 +6282,7 @@
       </c>
       <c r="I51" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J51" s="25">
         <f t="shared" ca="1" si="4"/>
@@ -6320,7 +6320,7 @@
       </c>
       <c r="I52" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J52" s="25">
         <f t="shared" ca="1" si="4"/>
@@ -6358,7 +6358,7 @@
       </c>
       <c r="I53" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J53" s="25">
         <f t="shared" ca="1" si="4"/>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="I54" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J54" s="25">
         <f t="shared" ca="1" si="4"/>
@@ -6434,7 +6434,7 @@
       </c>
       <c r="I55" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J55" s="25">
         <f t="shared" ca="1" si="4"/>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="I56" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J56" s="25">
         <f t="shared" ca="1" si="4"/>
@@ -6510,7 +6510,7 @@
       </c>
       <c r="I57" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J57" s="25">
         <f t="shared" ca="1" si="4"/>
@@ -6548,7 +6548,7 @@
       </c>
       <c r="I58" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J58" s="25">
         <f t="shared" ca="1" si="4"/>
@@ -6586,7 +6586,7 @@
       </c>
       <c r="I59" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J59" s="25">
         <f t="shared" ca="1" si="4"/>
@@ -6624,7 +6624,7 @@
       </c>
       <c r="I60" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J60" s="25">
         <f t="shared" ca="1" si="4"/>
@@ -6662,7 +6662,7 @@
       </c>
       <c r="I61" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J61" s="25">
         <f t="shared" ca="1" si="4"/>
@@ -6700,11 +6700,11 @@
       </c>
       <c r="I62" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J62" s="25">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K62" s="24" t="s">
         <v>344</v>
@@ -6738,11 +6738,11 @@
       </c>
       <c r="I63" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J63" s="25">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K63" s="24" t="s">
         <v>344</v>
@@ -6776,11 +6776,11 @@
       </c>
       <c r="I64" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J64" s="25">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K64" s="24" t="s">
         <v>344</v>
@@ -6814,11 +6814,11 @@
       </c>
       <c r="I65" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J65" s="25">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K65" s="24" t="s">
         <v>344</v>
@@ -6852,11 +6852,11 @@
       </c>
       <c r="I66" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J66" s="25">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K66" s="24" t="s">
         <v>344</v>
@@ -6890,11 +6890,11 @@
       </c>
       <c r="I67" s="17">
         <f t="shared" ca="1" si="3"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J67" s="25">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K67" s="24" t="s">
         <v>344</v>
@@ -6928,11 +6928,11 @@
       </c>
       <c r="I68" s="17">
         <f t="shared" ref="I68:I99" ca="1" si="5">TODAY()</f>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J68" s="25">
         <f t="shared" ref="J68:J99" ca="1" si="6">INT((H68-I68)/30)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K68" s="24" t="s">
         <v>344</v>
@@ -6966,11 +6966,11 @@
       </c>
       <c r="I69" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J69" s="25">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K69" s="24" t="s">
         <v>344</v>
@@ -7004,11 +7004,11 @@
       </c>
       <c r="I70" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J70" s="25">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K70" s="24" t="s">
         <v>344</v>
@@ -7042,7 +7042,7 @@
       </c>
       <c r="I71" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J71" s="25">
         <f t="shared" ca="1" si="6"/>
@@ -7080,7 +7080,7 @@
       </c>
       <c r="I72" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J72" s="25">
         <f t="shared" ca="1" si="6"/>
@@ -7118,7 +7118,7 @@
       </c>
       <c r="I73" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J73" s="25">
         <f t="shared" ca="1" si="6"/>
@@ -7156,7 +7156,7 @@
       </c>
       <c r="I74" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J74" s="25">
         <f t="shared" ca="1" si="6"/>
@@ -7194,7 +7194,7 @@
       </c>
       <c r="I75" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J75" s="25">
         <f t="shared" ca="1" si="6"/>
@@ -7232,7 +7232,7 @@
       </c>
       <c r="I76" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J76" s="25">
         <f t="shared" ca="1" si="6"/>
@@ -7270,7 +7270,7 @@
       </c>
       <c r="I77" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J77" s="25">
         <f t="shared" ca="1" si="6"/>
@@ -7308,7 +7308,7 @@
       </c>
       <c r="I78" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J78" s="25">
         <f t="shared" ca="1" si="6"/>
@@ -7346,7 +7346,7 @@
       </c>
       <c r="I79" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J79" s="25">
         <f t="shared" ca="1" si="6"/>
@@ -7384,7 +7384,7 @@
       </c>
       <c r="I80" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J80" s="25">
         <f t="shared" ca="1" si="6"/>
@@ -7422,7 +7422,7 @@
       </c>
       <c r="I81" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J81" s="25">
         <f t="shared" ca="1" si="6"/>
@@ -7460,7 +7460,7 @@
       </c>
       <c r="I82" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J82" s="25">
         <f t="shared" ca="1" si="6"/>
@@ -7498,7 +7498,7 @@
       </c>
       <c r="I83" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J83" s="25">
         <f t="shared" ca="1" si="6"/>
@@ -7536,7 +7536,7 @@
       </c>
       <c r="I84" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J84" s="25">
         <f t="shared" ca="1" si="6"/>
@@ -7574,7 +7574,7 @@
       </c>
       <c r="I85" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J85" s="25">
         <f t="shared" ca="1" si="6"/>
@@ -7612,7 +7612,7 @@
       </c>
       <c r="I86" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J86" s="25">
         <f t="shared" ca="1" si="6"/>
@@ -7650,7 +7650,7 @@
       </c>
       <c r="I87" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J87" s="25">
         <f t="shared" ca="1" si="6"/>
@@ -7688,7 +7688,7 @@
       </c>
       <c r="I88" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J88" s="25">
         <f t="shared" ca="1" si="6"/>
@@ -7726,7 +7726,7 @@
       </c>
       <c r="I89" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J89" s="25">
         <f t="shared" ca="1" si="6"/>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="I90" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J90" s="25">
         <f t="shared" ca="1" si="6"/>
@@ -7802,7 +7802,7 @@
       </c>
       <c r="I91" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J91" s="25">
         <f t="shared" ca="1" si="6"/>
@@ -7840,7 +7840,7 @@
       </c>
       <c r="I92" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J92" s="25">
         <f t="shared" ca="1" si="6"/>
@@ -7878,11 +7878,11 @@
       </c>
       <c r="I93" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J93" s="25">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K93" s="24" t="s">
         <v>344</v>
@@ -7916,11 +7916,11 @@
       </c>
       <c r="I94" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J94" s="25">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K94" s="24" t="s">
         <v>344</v>
@@ -7954,11 +7954,11 @@
       </c>
       <c r="I95" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J95" s="25">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K95" s="24" t="s">
         <v>344</v>
@@ -7992,11 +7992,11 @@
       </c>
       <c r="I96" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J96" s="25">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K96" s="24" t="s">
         <v>344</v>
@@ -8030,11 +8030,11 @@
       </c>
       <c r="I97" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J97" s="25">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K97" s="24" t="s">
         <v>344</v>
@@ -8068,11 +8068,11 @@
       </c>
       <c r="I98" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J98" s="25">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K98" s="24" t="s">
         <v>344</v>
@@ -8106,11 +8106,11 @@
       </c>
       <c r="I99" s="17">
         <f t="shared" ca="1" si="5"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J99" s="25">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K99" s="24" t="s">
         <v>344</v>
@@ -8144,11 +8144,11 @@
       </c>
       <c r="I100" s="17">
         <f t="shared" ref="I100:I110" ca="1" si="8">TODAY()</f>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J100" s="25">
         <f t="shared" ref="J100:J110" ca="1" si="9">INT((H100-I100)/30)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K100" s="24" t="s">
         <v>344</v>
@@ -8182,11 +8182,11 @@
       </c>
       <c r="I101" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J101" s="25">
         <f t="shared" ca="1" si="9"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K101" s="24" t="s">
         <v>344</v>
@@ -8220,7 +8220,7 @@
       </c>
       <c r="I102" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J102" s="25">
         <f t="shared" ca="1" si="9"/>
@@ -8258,11 +8258,11 @@
       </c>
       <c r="I103" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J103" s="25">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K103" s="24" t="s">
         <v>344</v>
@@ -8296,11 +8296,11 @@
       </c>
       <c r="I104" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J104" s="25">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K104" s="24" t="s">
         <v>344</v>
@@ -8334,11 +8334,11 @@
       </c>
       <c r="I105" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J105" s="25">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K105" s="24" t="s">
         <v>344</v>
@@ -8372,11 +8372,11 @@
       </c>
       <c r="I106" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J106" s="25">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K106" s="24" t="s">
         <v>344</v>
@@ -8410,11 +8410,11 @@
       </c>
       <c r="I107" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J107" s="25">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K107" s="24" t="s">
         <v>344</v>
@@ -8448,11 +8448,11 @@
       </c>
       <c r="I108" s="17">
         <f t="shared" ca="1" si="8"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J108" s="25">
         <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K108" s="24" t="s">
         <v>344</v>
@@ -8486,7 +8486,7 @@
       </c>
       <c r="I109" s="23">
         <f t="shared" ca="1" si="8"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J109" s="25">
         <f t="shared" ca="1" si="9"/>
@@ -8524,7 +8524,7 @@
       </c>
       <c r="I110" s="23">
         <f t="shared" ca="1" si="8"/>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J110" s="25">
         <f t="shared" ca="1" si="9"/>
@@ -8758,15 +8758,15 @@
       </c>
       <c r="I4" s="8">
         <f ca="1">TODAY()</f>
-        <v>42873</v>
+        <v>42886</v>
       </c>
       <c r="J4">
         <f ca="1">INT(-I4+H4)</f>
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="K4">
         <f ca="1">INT(J4/30)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
